--- a/Code/Results/Cases/Case_4_0/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_0/res_line/loading_percent.xlsx
@@ -412,28 +412,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.72728123934033</v>
+        <v>25.72728123934026</v>
       </c>
       <c r="C2">
-        <v>25.04495752131674</v>
+        <v>25.04495752131665</v>
       </c>
       <c r="D2">
-        <v>9.648384851777692</v>
+        <v>9.648384851777674</v>
       </c>
       <c r="E2">
-        <v>19.25183304156478</v>
+        <v>19.25183304156473</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>36.33679385125549</v>
+        <v>36.33679385125556</v>
       </c>
       <c r="H2">
-        <v>28.10464110502355</v>
+        <v>28.10464110502362</v>
       </c>
       <c r="I2">
-        <v>10.60120236289028</v>
+        <v>10.60120236289025</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -450,28 +450,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.82935933801561</v>
+        <v>23.82935933801545</v>
       </c>
       <c r="C3">
-        <v>23.15492957262621</v>
+        <v>23.15492957262641</v>
       </c>
       <c r="D3">
-        <v>9.002113641487936</v>
+        <v>9.002113641487933</v>
       </c>
       <c r="E3">
-        <v>17.77035220618117</v>
+        <v>17.77035220618115</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>34.23223292718598</v>
+        <v>34.2322329271859</v>
       </c>
       <c r="H3">
-        <v>26.75540807318892</v>
+        <v>26.75540807318891</v>
       </c>
       <c r="I3">
-        <v>9.829847751225804</v>
+        <v>9.829847751225792</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -488,28 +488,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.6129065877345</v>
+        <v>22.61290658773455</v>
       </c>
       <c r="C4">
-        <v>21.94780103544695</v>
+        <v>21.94780103544705</v>
       </c>
       <c r="D4">
-        <v>8.600709349138477</v>
+        <v>8.600709349138498</v>
       </c>
       <c r="E4">
-        <v>16.82711326191973</v>
+        <v>16.82711326191976</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>32.93483354600216</v>
+        <v>32.93483354600215</v>
       </c>
       <c r="H4">
-        <v>25.93739816877293</v>
+        <v>25.93739816877291</v>
       </c>
       <c r="I4">
-        <v>9.339781882648825</v>
+        <v>9.339781882648863</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -526,13 +526,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.10386846907259</v>
+        <v>22.10386846907275</v>
       </c>
       <c r="C5">
-        <v>21.44363930698043</v>
+        <v>21.44363930698045</v>
       </c>
       <c r="D5">
-        <v>8.434957186869562</v>
+        <v>8.434957186869566</v>
       </c>
       <c r="E5">
         <v>16.43382355517575</v>
@@ -541,13 +541,13 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>32.40479890466521</v>
+        <v>32.40479890466516</v>
       </c>
       <c r="H5">
-        <v>25.6065781758105</v>
+        <v>25.60657817581039</v>
       </c>
       <c r="I5">
-        <v>9.13569867966479</v>
+        <v>9.135698679664802</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -564,28 +564,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.01852563464117</v>
+        <v>22.01852563464125</v>
       </c>
       <c r="C6">
-        <v>21.35917004413659</v>
+        <v>21.35917004413662</v>
       </c>
       <c r="D6">
-        <v>8.407302991563501</v>
+        <v>8.407302991563512</v>
       </c>
       <c r="E6">
-        <v>16.36796743819557</v>
+        <v>16.3679674381956</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>32.31670916148334</v>
+        <v>32.31670916148335</v>
       </c>
       <c r="H6">
-        <v>25.55179733392839</v>
+        <v>25.55179733392841</v>
       </c>
       <c r="I6">
-        <v>9.101540090844692</v>
+        <v>9.10154009084466</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -602,28 +602,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.6060960511669</v>
+        <v>22.60609605116693</v>
       </c>
       <c r="C7">
-        <v>21.9410519591769</v>
+        <v>21.94105195917683</v>
       </c>
       <c r="D7">
-        <v>8.598482765477767</v>
+        <v>8.598482765477758</v>
       </c>
       <c r="E7">
-        <v>16.82184587236774</v>
+        <v>16.82184587236775</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>32.92769061863233</v>
+        <v>32.92769061863221</v>
       </c>
       <c r="H7">
-        <v>25.93292644467347</v>
+        <v>25.93292644467333</v>
       </c>
       <c r="I7">
-        <v>9.337047560791486</v>
+        <v>9.337047560791444</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -640,28 +640,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.08318797900496</v>
+        <v>25.08318797900489</v>
       </c>
       <c r="C8">
-        <v>24.40262288046083</v>
+        <v>24.40262288046056</v>
       </c>
       <c r="D8">
-        <v>9.423065672328153</v>
+        <v>9.423065672328173</v>
       </c>
       <c r="E8">
-        <v>18.74769465858452</v>
+        <v>18.74769465858449</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>35.61214131774397</v>
+        <v>35.61214131774383</v>
       </c>
       <c r="H8">
-        <v>27.63717156584181</v>
+        <v>27.63717156584175</v>
       </c>
       <c r="I8">
-        <v>10.33849676058669</v>
+        <v>10.33849676058664</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -678,28 +678,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.55970758129211</v>
+        <v>29.55970758129209</v>
       </c>
       <c r="C9">
-        <v>28.88726417327801</v>
+        <v>28.88726417327807</v>
       </c>
       <c r="D9">
         <v>11.13996784563286</v>
       </c>
       <c r="E9">
-        <v>22.28236291734886</v>
+        <v>22.28236291734883</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>40.84772480393949</v>
+        <v>40.84772480393943</v>
       </c>
       <c r="H9">
-        <v>31.07276070237723</v>
+        <v>31.07276070237717</v>
       </c>
       <c r="I9">
-        <v>12.18497295584254</v>
+        <v>12.18497295584247</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -716,25 +716,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.65748330649768</v>
+        <v>32.65748330649778</v>
       </c>
       <c r="C10">
-        <v>32.02025259438776</v>
+        <v>32.02025259438777</v>
       </c>
       <c r="D10">
-        <v>12.35867885444285</v>
+        <v>12.35867885444299</v>
       </c>
       <c r="E10">
-        <v>24.77404185157716</v>
+        <v>24.77404185157729</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>44.86483919642449</v>
+        <v>44.86483919642485</v>
       </c>
       <c r="H10">
-        <v>33.68156180077741</v>
+        <v>33.68156180077762</v>
       </c>
       <c r="I10">
         <v>13.49294071037096</v>
@@ -754,28 +754,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>34.03712374933674</v>
+        <v>34.0371237493367</v>
       </c>
       <c r="C11">
-        <v>33.42411056724836</v>
+        <v>33.42411056724811</v>
       </c>
       <c r="D11">
-        <v>12.90532315601105</v>
+        <v>12.90532315601089</v>
       </c>
       <c r="E11">
-        <v>25.89718336611141</v>
+        <v>25.89718336611131</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>46.81056474522054</v>
+        <v>46.81056474522028</v>
       </c>
       <c r="H11">
-        <v>34.8974633402829</v>
+        <v>34.89746334028279</v>
       </c>
       <c r="I11">
-        <v>14.08427659936352</v>
+        <v>14.08427659936345</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -792,28 +792,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.55659269439479</v>
+        <v>34.55659269439489</v>
       </c>
       <c r="C12">
-        <v>33.95414235599187</v>
+        <v>33.95414235599191</v>
       </c>
       <c r="D12">
-        <v>13.11178366580141</v>
+        <v>13.11178366580138</v>
       </c>
       <c r="E12">
-        <v>26.32237186002889</v>
+        <v>26.32237186002895</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>47.54939385897033</v>
+        <v>47.54939385897065</v>
       </c>
       <c r="H12">
-        <v>35.36341370166605</v>
+        <v>35.3634137016663</v>
       </c>
       <c r="I12">
-        <v>14.30843497964433</v>
+        <v>14.30843497964434</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -830,28 +830,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.44482409265292</v>
+        <v>34.44482409265306</v>
       </c>
       <c r="C13">
-        <v>33.84003286649776</v>
+        <v>33.84003286649791</v>
       </c>
       <c r="D13">
-        <v>13.067332085877</v>
+        <v>13.06733208587708</v>
       </c>
       <c r="E13">
-        <v>26.23077967188244</v>
+        <v>26.23077967188253</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>47.39014437506825</v>
+        <v>47.39014437506842</v>
       </c>
       <c r="H13">
-        <v>35.2627917520445</v>
+        <v>35.26279175204458</v>
       </c>
       <c r="I13">
-        <v>14.26013383325955</v>
+        <v>14.26013383325954</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -868,28 +868,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34.07991185788394</v>
+        <v>34.07991185788399</v>
       </c>
       <c r="C14">
-        <v>33.46773834181316</v>
+        <v>33.46773834181313</v>
       </c>
       <c r="D14">
-        <v>12.92231584067992</v>
+        <v>12.92231584067995</v>
       </c>
       <c r="E14">
-        <v>25.93215720754379</v>
+        <v>25.93215720754375</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>46.87129412285872</v>
+        <v>46.87129412285864</v>
       </c>
       <c r="H14">
-        <v>34.93567765155722</v>
+        <v>34.93567765155715</v>
       </c>
       <c r="I14">
-        <v>14.10270851392695</v>
+        <v>14.10270851392691</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.85604897189796</v>
+        <v>33.85604897189821</v>
       </c>
       <c r="C15">
-        <v>33.23954227396005</v>
+        <v>33.23954227396014</v>
       </c>
       <c r="D15">
-        <v>12.83343811744608</v>
+        <v>12.83343811744615</v>
       </c>
       <c r="E15">
-        <v>25.74927312468968</v>
+        <v>25.74927312468979</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>46.55381839658445</v>
+        <v>46.55381839658482</v>
       </c>
       <c r="H15">
-        <v>34.73607586099938</v>
+        <v>34.73607586099961</v>
       </c>
       <c r="I15">
-        <v>14.00633717490605</v>
+        <v>14.00633717490609</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -944,28 +944,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.56682836119854</v>
+        <v>32.5668283611984</v>
       </c>
       <c r="C16">
-        <v>31.92819684225955</v>
+        <v>31.92819684225935</v>
       </c>
       <c r="D16">
-        <v>12.32284418687191</v>
+        <v>12.32284418687182</v>
       </c>
       <c r="E16">
-        <v>24.70054298954493</v>
+        <v>24.7005429895448</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>44.73783973091158</v>
+        <v>44.73783973091128</v>
       </c>
       <c r="H16">
-        <v>33.60278972479027</v>
+        <v>33.60278972479013</v>
       </c>
       <c r="I16">
-        <v>13.45428231240815</v>
+        <v>13.45428231240805</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -982,28 +982,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.76918263872853</v>
+        <v>31.7691826387284</v>
       </c>
       <c r="C17">
-        <v>31.11921196258099</v>
+        <v>31.11921196258086</v>
       </c>
       <c r="D17">
-        <v>12.0079911769451</v>
+        <v>12.00799117694506</v>
       </c>
       <c r="E17">
-        <v>24.05540295906176</v>
+        <v>24.05540295906172</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>43.62502784897649</v>
+        <v>43.62502784897626</v>
       </c>
       <c r="H17">
-        <v>32.9158320674081</v>
+        <v>32.91583206740797</v>
       </c>
       <c r="I17">
-        <v>13.11515776032417</v>
+        <v>13.11515776032416</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.30752456368447</v>
+        <v>31.3075245636844</v>
       </c>
       <c r="C18">
-        <v>30.65178790365864</v>
+        <v>30.65178790365845</v>
       </c>
       <c r="D18">
-        <v>11.82612496099104</v>
+        <v>11.82612496099096</v>
       </c>
       <c r="E18">
-        <v>23.68326397499967</v>
+        <v>23.68326397499958</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1038,10 +1038,10 @@
         <v>43.00684844400121</v>
       </c>
       <c r="H18">
-        <v>32.52335420049911</v>
+        <v>32.52335420049913</v>
       </c>
       <c r="I18">
-        <v>12.91970220034933</v>
+        <v>12.91970220034934</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1058,28 +1058,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.15068736272257</v>
+        <v>31.15068736272265</v>
       </c>
       <c r="C19">
-        <v>30.49312272402085</v>
+        <v>30.49312272402074</v>
       </c>
       <c r="D19">
-        <v>11.76440048196873</v>
+        <v>11.7644004819687</v>
       </c>
       <c r="E19">
-        <v>23.55704381121586</v>
+        <v>23.55704381121583</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>42.81071081341496</v>
+        <v>42.81071081341508</v>
       </c>
       <c r="H19">
-        <v>32.39088813751297</v>
+        <v>32.39088813751309</v>
       </c>
       <c r="I19">
-        <v>12.85343549457432</v>
+        <v>12.85343549457434</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1096,28 +1096,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.85438246049138</v>
+        <v>31.85438246049143</v>
       </c>
       <c r="C20">
-        <v>31.20553925775469</v>
+        <v>31.20553925775486</v>
       </c>
       <c r="D20">
-        <v>12.04158391162548</v>
+        <v>12.04158391162557</v>
       </c>
       <c r="E20">
-        <v>24.12418129456139</v>
+        <v>24.12418129456145</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>43.74349332399238</v>
+        <v>43.74349332399267</v>
       </c>
       <c r="H20">
-        <v>32.98867821021986</v>
+        <v>32.98867821022004</v>
       </c>
       <c r="I20">
-        <v>13.15129466568457</v>
+        <v>13.15129466568458</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1134,28 +1134,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>34.18716428802605</v>
+        <v>34.18716428802579</v>
       </c>
       <c r="C21">
-        <v>33.57711933608593</v>
+        <v>33.57711933608562</v>
       </c>
       <c r="D21">
-        <v>12.96492003674067</v>
+        <v>12.96492003674052</v>
       </c>
       <c r="E21">
-        <v>26.01986048698172</v>
+        <v>26.01986048698155</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>47.02361863905801</v>
+        <v>47.02361863905743</v>
       </c>
       <c r="H21">
-        <v>35.03159654376627</v>
+        <v>35.03159654376595</v>
       </c>
       <c r="I21">
-        <v>14.14893477872622</v>
+        <v>14.1489347787261</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1172,28 +1172,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.69529993836819</v>
+        <v>35.69529993836797</v>
       </c>
       <c r="C22">
-        <v>35.11887512094427</v>
+        <v>35.11887512094412</v>
       </c>
       <c r="D22">
-        <v>13.56559720522698</v>
+        <v>13.56559720522691</v>
       </c>
       <c r="E22">
-        <v>27.25900892435766</v>
+        <v>27.25900892435761</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>49.18060872056961</v>
+        <v>49.18060872056919</v>
       </c>
       <c r="H22">
-        <v>36.55124523505751</v>
+        <v>36.55124523505716</v>
       </c>
       <c r="I22">
-        <v>14.8028180519388</v>
+        <v>14.80281805193884</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.89137573729654</v>
+        <v>34.89137573729649</v>
       </c>
       <c r="C23">
-        <v>34.29616325783261</v>
+        <v>34.29616325783256</v>
       </c>
       <c r="D23">
-        <v>13.24502837898667</v>
+        <v>13.24502837898668</v>
       </c>
       <c r="E23">
         <v>26.59708187584134</v>
@@ -1225,13 +1225,13 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>48.02732248054203</v>
+        <v>48.02732248054194</v>
       </c>
       <c r="H23">
-        <v>35.70554259332402</v>
+        <v>35.70554259332397</v>
       </c>
       <c r="I23">
-        <v>14.45334968429386</v>
+        <v>14.45334968429383</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1248,28 +1248,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.81587330959364</v>
+        <v>31.81587330959371</v>
       </c>
       <c r="C24">
-        <v>31.16651804576589</v>
+        <v>31.16651804576595</v>
       </c>
       <c r="D24">
-        <v>12.02639933449695</v>
+        <v>12.02639933449701</v>
       </c>
       <c r="E24">
-        <v>24.09309056759513</v>
+        <v>24.09309056759517</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>43.68993666588348</v>
+        <v>43.68993666588367</v>
       </c>
       <c r="H24">
-        <v>32.95573689031171</v>
+        <v>32.95573689031185</v>
       </c>
       <c r="I24">
-        <v>13.13495874631907</v>
+        <v>13.13495874631905</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1286,28 +1286,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.38567693783157</v>
+        <v>28.3856769378317</v>
       </c>
       <c r="C25">
-        <v>27.70640726457832</v>
+        <v>27.70640726457837</v>
       </c>
       <c r="D25">
-        <v>10.68115655542803</v>
+        <v>10.68115655542808</v>
       </c>
       <c r="E25">
-        <v>21.34817412163078</v>
+        <v>21.34817412163082</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>39.43168892000742</v>
+        <v>39.43168892000752</v>
       </c>
       <c r="H25">
-        <v>30.13119100400942</v>
+        <v>30.13119100400946</v>
       </c>
       <c r="I25">
-        <v>11.69593684052791</v>
+        <v>11.69593684052788</v>
       </c>
       <c r="J25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_0/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_0/res_line/loading_percent.xlsx
@@ -412,28 +412,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.72728123934026</v>
+        <v>25.72728123934033</v>
       </c>
       <c r="C2">
-        <v>25.04495752131665</v>
+        <v>25.04495752131674</v>
       </c>
       <c r="D2">
-        <v>9.648384851777674</v>
+        <v>9.648384851777692</v>
       </c>
       <c r="E2">
-        <v>19.25183304156473</v>
+        <v>19.25183304156478</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>36.33679385125556</v>
+        <v>36.33679385125549</v>
       </c>
       <c r="H2">
-        <v>28.10464110502362</v>
+        <v>28.10464110502355</v>
       </c>
       <c r="I2">
-        <v>10.60120236289025</v>
+        <v>10.60120236289028</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -450,28 +450,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.82935933801545</v>
+        <v>23.82935933801561</v>
       </c>
       <c r="C3">
-        <v>23.15492957262641</v>
+        <v>23.15492957262621</v>
       </c>
       <c r="D3">
-        <v>9.002113641487933</v>
+        <v>9.002113641487936</v>
       </c>
       <c r="E3">
-        <v>17.77035220618115</v>
+        <v>17.77035220618117</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>34.2322329271859</v>
+        <v>34.23223292718598</v>
       </c>
       <c r="H3">
-        <v>26.75540807318891</v>
+        <v>26.75540807318892</v>
       </c>
       <c r="I3">
-        <v>9.829847751225792</v>
+        <v>9.829847751225804</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -488,28 +488,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.61290658773455</v>
+        <v>22.6129065877345</v>
       </c>
       <c r="C4">
-        <v>21.94780103544705</v>
+        <v>21.94780103544695</v>
       </c>
       <c r="D4">
-        <v>8.600709349138498</v>
+        <v>8.600709349138477</v>
       </c>
       <c r="E4">
-        <v>16.82711326191976</v>
+        <v>16.82711326191973</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>32.93483354600215</v>
+        <v>32.93483354600216</v>
       </c>
       <c r="H4">
-        <v>25.93739816877291</v>
+        <v>25.93739816877293</v>
       </c>
       <c r="I4">
-        <v>9.339781882648863</v>
+        <v>9.339781882648825</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -526,13 +526,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.10386846907275</v>
+        <v>22.10386846907259</v>
       </c>
       <c r="C5">
-        <v>21.44363930698045</v>
+        <v>21.44363930698043</v>
       </c>
       <c r="D5">
-        <v>8.434957186869566</v>
+        <v>8.434957186869562</v>
       </c>
       <c r="E5">
         <v>16.43382355517575</v>
@@ -541,13 +541,13 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>32.40479890466516</v>
+        <v>32.40479890466521</v>
       </c>
       <c r="H5">
-        <v>25.60657817581039</v>
+        <v>25.6065781758105</v>
       </c>
       <c r="I5">
-        <v>9.135698679664802</v>
+        <v>9.13569867966479</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -564,28 +564,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.01852563464125</v>
+        <v>22.01852563464117</v>
       </c>
       <c r="C6">
-        <v>21.35917004413662</v>
+        <v>21.35917004413659</v>
       </c>
       <c r="D6">
-        <v>8.407302991563512</v>
+        <v>8.407302991563501</v>
       </c>
       <c r="E6">
-        <v>16.3679674381956</v>
+        <v>16.36796743819557</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>32.31670916148335</v>
+        <v>32.31670916148334</v>
       </c>
       <c r="H6">
-        <v>25.55179733392841</v>
+        <v>25.55179733392839</v>
       </c>
       <c r="I6">
-        <v>9.10154009084466</v>
+        <v>9.101540090844692</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -602,28 +602,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.60609605116693</v>
+        <v>22.6060960511669</v>
       </c>
       <c r="C7">
-        <v>21.94105195917683</v>
+        <v>21.9410519591769</v>
       </c>
       <c r="D7">
-        <v>8.598482765477758</v>
+        <v>8.598482765477767</v>
       </c>
       <c r="E7">
-        <v>16.82184587236775</v>
+        <v>16.82184587236774</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>32.92769061863221</v>
+        <v>32.92769061863233</v>
       </c>
       <c r="H7">
-        <v>25.93292644467333</v>
+        <v>25.93292644467347</v>
       </c>
       <c r="I7">
-        <v>9.337047560791444</v>
+        <v>9.337047560791486</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -640,28 +640,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.08318797900489</v>
+        <v>25.08318797900496</v>
       </c>
       <c r="C8">
-        <v>24.40262288046056</v>
+        <v>24.40262288046083</v>
       </c>
       <c r="D8">
-        <v>9.423065672328173</v>
+        <v>9.423065672328153</v>
       </c>
       <c r="E8">
-        <v>18.74769465858449</v>
+        <v>18.74769465858452</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>35.61214131774383</v>
+        <v>35.61214131774397</v>
       </c>
       <c r="H8">
-        <v>27.63717156584175</v>
+        <v>27.63717156584181</v>
       </c>
       <c r="I8">
-        <v>10.33849676058664</v>
+        <v>10.33849676058669</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -678,28 +678,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.55970758129209</v>
+        <v>29.55970758129211</v>
       </c>
       <c r="C9">
-        <v>28.88726417327807</v>
+        <v>28.88726417327801</v>
       </c>
       <c r="D9">
         <v>11.13996784563286</v>
       </c>
       <c r="E9">
-        <v>22.28236291734883</v>
+        <v>22.28236291734886</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>40.84772480393943</v>
+        <v>40.84772480393949</v>
       </c>
       <c r="H9">
-        <v>31.07276070237717</v>
+        <v>31.07276070237723</v>
       </c>
       <c r="I9">
-        <v>12.18497295584247</v>
+        <v>12.18497295584254</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -716,25 +716,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.65748330649778</v>
+        <v>32.65748330649768</v>
       </c>
       <c r="C10">
-        <v>32.02025259438777</v>
+        <v>32.02025259438776</v>
       </c>
       <c r="D10">
-        <v>12.35867885444299</v>
+        <v>12.35867885444285</v>
       </c>
       <c r="E10">
-        <v>24.77404185157729</v>
+        <v>24.77404185157716</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>44.86483919642485</v>
+        <v>44.86483919642449</v>
       </c>
       <c r="H10">
-        <v>33.68156180077762</v>
+        <v>33.68156180077741</v>
       </c>
       <c r="I10">
         <v>13.49294071037096</v>
@@ -754,28 +754,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>34.0371237493367</v>
+        <v>34.03712374933674</v>
       </c>
       <c r="C11">
-        <v>33.42411056724811</v>
+        <v>33.42411056724836</v>
       </c>
       <c r="D11">
-        <v>12.90532315601089</v>
+        <v>12.90532315601105</v>
       </c>
       <c r="E11">
-        <v>25.89718336611131</v>
+        <v>25.89718336611141</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>46.81056474522028</v>
+        <v>46.81056474522054</v>
       </c>
       <c r="H11">
-        <v>34.89746334028279</v>
+        <v>34.8974633402829</v>
       </c>
       <c r="I11">
-        <v>14.08427659936345</v>
+        <v>14.08427659936352</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -792,28 +792,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.55659269439489</v>
+        <v>34.55659269439479</v>
       </c>
       <c r="C12">
-        <v>33.95414235599191</v>
+        <v>33.95414235599187</v>
       </c>
       <c r="D12">
-        <v>13.11178366580138</v>
+        <v>13.11178366580141</v>
       </c>
       <c r="E12">
-        <v>26.32237186002895</v>
+        <v>26.32237186002889</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>47.54939385897065</v>
+        <v>47.54939385897033</v>
       </c>
       <c r="H12">
-        <v>35.3634137016663</v>
+        <v>35.36341370166605</v>
       </c>
       <c r="I12">
-        <v>14.30843497964434</v>
+        <v>14.30843497964433</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -830,28 +830,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.44482409265306</v>
+        <v>34.44482409265292</v>
       </c>
       <c r="C13">
-        <v>33.84003286649791</v>
+        <v>33.84003286649776</v>
       </c>
       <c r="D13">
-        <v>13.06733208587708</v>
+        <v>13.067332085877</v>
       </c>
       <c r="E13">
-        <v>26.23077967188253</v>
+        <v>26.23077967188244</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>47.39014437506842</v>
+        <v>47.39014437506825</v>
       </c>
       <c r="H13">
-        <v>35.26279175204458</v>
+        <v>35.2627917520445</v>
       </c>
       <c r="I13">
-        <v>14.26013383325954</v>
+        <v>14.26013383325955</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -868,28 +868,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34.07991185788399</v>
+        <v>34.07991185788394</v>
       </c>
       <c r="C14">
-        <v>33.46773834181313</v>
+        <v>33.46773834181316</v>
       </c>
       <c r="D14">
-        <v>12.92231584067995</v>
+        <v>12.92231584067992</v>
       </c>
       <c r="E14">
-        <v>25.93215720754375</v>
+        <v>25.93215720754379</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>46.87129412285864</v>
+        <v>46.87129412285872</v>
       </c>
       <c r="H14">
-        <v>34.93567765155715</v>
+        <v>34.93567765155722</v>
       </c>
       <c r="I14">
-        <v>14.10270851392691</v>
+        <v>14.10270851392695</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.85604897189821</v>
+        <v>33.85604897189796</v>
       </c>
       <c r="C15">
-        <v>33.23954227396014</v>
+        <v>33.23954227396005</v>
       </c>
       <c r="D15">
-        <v>12.83343811744615</v>
+        <v>12.83343811744608</v>
       </c>
       <c r="E15">
-        <v>25.74927312468979</v>
+        <v>25.74927312468968</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>46.55381839658482</v>
+        <v>46.55381839658445</v>
       </c>
       <c r="H15">
-        <v>34.73607586099961</v>
+        <v>34.73607586099938</v>
       </c>
       <c r="I15">
-        <v>14.00633717490609</v>
+        <v>14.00633717490605</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -944,28 +944,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.5668283611984</v>
+        <v>32.56682836119854</v>
       </c>
       <c r="C16">
-        <v>31.92819684225935</v>
+        <v>31.92819684225955</v>
       </c>
       <c r="D16">
-        <v>12.32284418687182</v>
+        <v>12.32284418687191</v>
       </c>
       <c r="E16">
-        <v>24.7005429895448</v>
+        <v>24.70054298954493</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>44.73783973091128</v>
+        <v>44.73783973091158</v>
       </c>
       <c r="H16">
-        <v>33.60278972479013</v>
+        <v>33.60278972479027</v>
       </c>
       <c r="I16">
-        <v>13.45428231240805</v>
+        <v>13.45428231240815</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -982,28 +982,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.7691826387284</v>
+        <v>31.76918263872853</v>
       </c>
       <c r="C17">
-        <v>31.11921196258086</v>
+        <v>31.11921196258099</v>
       </c>
       <c r="D17">
-        <v>12.00799117694506</v>
+        <v>12.0079911769451</v>
       </c>
       <c r="E17">
-        <v>24.05540295906172</v>
+        <v>24.05540295906176</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>43.62502784897626</v>
+        <v>43.62502784897649</v>
       </c>
       <c r="H17">
-        <v>32.91583206740797</v>
+        <v>32.9158320674081</v>
       </c>
       <c r="I17">
-        <v>13.11515776032416</v>
+        <v>13.11515776032417</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.3075245636844</v>
+        <v>31.30752456368447</v>
       </c>
       <c r="C18">
-        <v>30.65178790365845</v>
+        <v>30.65178790365864</v>
       </c>
       <c r="D18">
-        <v>11.82612496099096</v>
+        <v>11.82612496099104</v>
       </c>
       <c r="E18">
-        <v>23.68326397499958</v>
+        <v>23.68326397499967</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1038,10 +1038,10 @@
         <v>43.00684844400121</v>
       </c>
       <c r="H18">
-        <v>32.52335420049913</v>
+        <v>32.52335420049911</v>
       </c>
       <c r="I18">
-        <v>12.91970220034934</v>
+        <v>12.91970220034933</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1058,28 +1058,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.15068736272265</v>
+        <v>31.15068736272257</v>
       </c>
       <c r="C19">
-        <v>30.49312272402074</v>
+        <v>30.49312272402085</v>
       </c>
       <c r="D19">
-        <v>11.7644004819687</v>
+        <v>11.76440048196873</v>
       </c>
       <c r="E19">
-        <v>23.55704381121583</v>
+        <v>23.55704381121586</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>42.81071081341508</v>
+        <v>42.81071081341496</v>
       </c>
       <c r="H19">
-        <v>32.39088813751309</v>
+        <v>32.39088813751297</v>
       </c>
       <c r="I19">
-        <v>12.85343549457434</v>
+        <v>12.85343549457432</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1096,28 +1096,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.85438246049143</v>
+        <v>31.85438246049138</v>
       </c>
       <c r="C20">
-        <v>31.20553925775486</v>
+        <v>31.20553925775469</v>
       </c>
       <c r="D20">
-        <v>12.04158391162557</v>
+        <v>12.04158391162548</v>
       </c>
       <c r="E20">
-        <v>24.12418129456145</v>
+        <v>24.12418129456139</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>43.74349332399267</v>
+        <v>43.74349332399238</v>
       </c>
       <c r="H20">
-        <v>32.98867821022004</v>
+        <v>32.98867821021986</v>
       </c>
       <c r="I20">
-        <v>13.15129466568458</v>
+        <v>13.15129466568457</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1134,28 +1134,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>34.18716428802579</v>
+        <v>34.18716428802605</v>
       </c>
       <c r="C21">
-        <v>33.57711933608562</v>
+        <v>33.57711933608593</v>
       </c>
       <c r="D21">
-        <v>12.96492003674052</v>
+        <v>12.96492003674067</v>
       </c>
       <c r="E21">
-        <v>26.01986048698155</v>
+        <v>26.01986048698172</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>47.02361863905743</v>
+        <v>47.02361863905801</v>
       </c>
       <c r="H21">
-        <v>35.03159654376595</v>
+        <v>35.03159654376627</v>
       </c>
       <c r="I21">
-        <v>14.1489347787261</v>
+        <v>14.14893477872622</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1172,28 +1172,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.69529993836797</v>
+        <v>35.69529993836819</v>
       </c>
       <c r="C22">
-        <v>35.11887512094412</v>
+        <v>35.11887512094427</v>
       </c>
       <c r="D22">
-        <v>13.56559720522691</v>
+        <v>13.56559720522698</v>
       </c>
       <c r="E22">
-        <v>27.25900892435761</v>
+        <v>27.25900892435766</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>49.18060872056919</v>
+        <v>49.18060872056961</v>
       </c>
       <c r="H22">
-        <v>36.55124523505716</v>
+        <v>36.55124523505751</v>
       </c>
       <c r="I22">
-        <v>14.80281805193884</v>
+        <v>14.8028180519388</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.89137573729649</v>
+        <v>34.89137573729654</v>
       </c>
       <c r="C23">
-        <v>34.29616325783256</v>
+        <v>34.29616325783261</v>
       </c>
       <c r="D23">
-        <v>13.24502837898668</v>
+        <v>13.24502837898667</v>
       </c>
       <c r="E23">
         <v>26.59708187584134</v>
@@ -1225,13 +1225,13 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>48.02732248054194</v>
+        <v>48.02732248054203</v>
       </c>
       <c r="H23">
-        <v>35.70554259332397</v>
+        <v>35.70554259332402</v>
       </c>
       <c r="I23">
-        <v>14.45334968429383</v>
+        <v>14.45334968429386</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1248,28 +1248,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.81587330959371</v>
+        <v>31.81587330959364</v>
       </c>
       <c r="C24">
-        <v>31.16651804576595</v>
+        <v>31.16651804576589</v>
       </c>
       <c r="D24">
-        <v>12.02639933449701</v>
+        <v>12.02639933449695</v>
       </c>
       <c r="E24">
-        <v>24.09309056759517</v>
+        <v>24.09309056759513</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>43.68993666588367</v>
+        <v>43.68993666588348</v>
       </c>
       <c r="H24">
-        <v>32.95573689031185</v>
+        <v>32.95573689031171</v>
       </c>
       <c r="I24">
-        <v>13.13495874631905</v>
+        <v>13.13495874631907</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1286,28 +1286,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.3856769378317</v>
+        <v>28.38567693783157</v>
       </c>
       <c r="C25">
-        <v>27.70640726457837</v>
+        <v>27.70640726457832</v>
       </c>
       <c r="D25">
-        <v>10.68115655542808</v>
+        <v>10.68115655542803</v>
       </c>
       <c r="E25">
-        <v>21.34817412163082</v>
+        <v>21.34817412163078</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>39.43168892000752</v>
+        <v>39.43168892000742</v>
       </c>
       <c r="H25">
-        <v>30.13119100400946</v>
+        <v>30.13119100400942</v>
       </c>
       <c r="I25">
-        <v>11.69593684052788</v>
+        <v>11.69593684052791</v>
       </c>
       <c r="J25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_0/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_0/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,37 +406,40 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.72728123934033</v>
+        <v>25.72521792182921</v>
       </c>
       <c r="C2">
-        <v>25.04495752131674</v>
+        <v>25.03326597655153</v>
       </c>
       <c r="D2">
-        <v>9.648384851777692</v>
+        <v>9.648007799271245</v>
       </c>
       <c r="E2">
-        <v>19.25183304156478</v>
+        <v>19.25106064652032</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>36.33679385125549</v>
+        <v>35.7990041045918</v>
       </c>
       <c r="H2">
-        <v>28.10464110502355</v>
+        <v>36.3763166826359</v>
       </c>
       <c r="I2">
-        <v>10.60120236289028</v>
+        <v>28.06389167851654</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>10.60081602172204</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -444,37 +447,40 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.82935933801561</v>
+        <v>23.82786175971733</v>
       </c>
       <c r="C3">
-        <v>23.15492957262621</v>
+        <v>23.14441786442666</v>
       </c>
       <c r="D3">
-        <v>9.002113641487936</v>
+        <v>9.001917091541433</v>
       </c>
       <c r="E3">
-        <v>17.77035220618117</v>
+        <v>17.76982066942291</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>34.23223292718598</v>
+        <v>33.45830392655608</v>
       </c>
       <c r="H3">
-        <v>26.75540807318892</v>
+        <v>34.26992369834245</v>
       </c>
       <c r="I3">
-        <v>9.829847751225804</v>
+        <v>26.71794878156598</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>9.829584505644579</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -482,37 +488,40 @@
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.6129065877345</v>
+        <v>22.61173020257079</v>
       </c>
       <c r="C4">
-        <v>21.94780103544695</v>
+        <v>21.9380000765266</v>
       </c>
       <c r="D4">
-        <v>8.600709349138477</v>
+        <v>8.600566448421654</v>
       </c>
       <c r="E4">
-        <v>16.82711326191973</v>
+        <v>16.82671111759966</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>32.93483354600216</v>
+        <v>31.9995019145219</v>
       </c>
       <c r="H4">
-        <v>25.93739816877293</v>
+        <v>32.97144301585897</v>
       </c>
       <c r="I4">
-        <v>9.339781882648825</v>
+        <v>25.90203321445543</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>9.339584142965879</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -520,37 +529,40 @@
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.10386846907259</v>
+        <v>22.10281747285853</v>
       </c>
       <c r="C5">
-        <v>21.44363930698043</v>
+        <v>21.43412575567734</v>
       </c>
       <c r="D5">
-        <v>8.434957186869562</v>
+        <v>8.43483406948727</v>
       </c>
       <c r="E5">
-        <v>16.43382355517575</v>
+        <v>16.43347031966878</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>32.40479890466521</v>
+        <v>31.39947484472944</v>
       </c>
       <c r="H5">
-        <v>25.6065781758105</v>
+        <v>32.44098019254374</v>
       </c>
       <c r="I5">
-        <v>9.13569867966479</v>
+        <v>25.57208577170439</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>9.135525550281629</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -558,37 +570,40 @@
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.01852563464117</v>
+        <v>22.01749515471093</v>
       </c>
       <c r="C6">
-        <v>21.35917004413659</v>
+        <v>21.34970411241674</v>
       </c>
       <c r="D6">
-        <v>8.407302991563501</v>
+        <v>8.407183042469308</v>
       </c>
       <c r="E6">
-        <v>16.36796743819557</v>
+        <v>16.36762211455124</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>32.31670916148334</v>
+        <v>31.29950582027528</v>
       </c>
       <c r="H6">
-        <v>25.55179733392839</v>
+        <v>32.35282014626556</v>
       </c>
       <c r="I6">
-        <v>9.101540090844692</v>
+        <v>25.51745097235922</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>9.101370933601187</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -596,37 +611,40 @@
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.6060960511669</v>
+        <v>22.60492137803223</v>
       </c>
       <c r="C7">
-        <v>21.9410519591769</v>
+        <v>21.93125488395274</v>
       </c>
       <c r="D7">
-        <v>8.598482765477767</v>
+        <v>8.598340139575555</v>
       </c>
       <c r="E7">
-        <v>16.82184587236774</v>
+        <v>16.82144440213287</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>32.92769061863233</v>
+        <v>31.99143223510655</v>
       </c>
       <c r="H7">
-        <v>25.93292644467347</v>
+        <v>32.96429426145963</v>
       </c>
       <c r="I7">
-        <v>9.337047560791486</v>
+        <v>25.89757318036111</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>9.336850160919532</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -634,37 +652,40 @@
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.08318797900496</v>
+        <v>25.08132588158989</v>
       </c>
       <c r="C8">
-        <v>24.40262288046083</v>
+        <v>24.39134179899202</v>
       </c>
       <c r="D8">
-        <v>9.423065672328153</v>
+        <v>9.422803810584458</v>
       </c>
       <c r="E8">
-        <v>18.74769465858452</v>
+        <v>18.74700970571751</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>35.61214131774397</v>
+        <v>34.99627519879458</v>
       </c>
       <c r="H8">
-        <v>27.63717156584181</v>
+        <v>35.65102430657893</v>
       </c>
       <c r="I8">
-        <v>10.33849676058669</v>
+        <v>27.59754160552738</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>10.33815525508286</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -672,37 +693,40 @@
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.55970758129211</v>
+        <v>29.5562269234499</v>
       </c>
       <c r="C9">
-        <v>28.88726417327801</v>
+        <v>28.87289223374172</v>
       </c>
       <c r="D9">
-        <v>11.13996784563286</v>
+        <v>11.1392719587323</v>
       </c>
       <c r="E9">
-        <v>22.28236291734886</v>
+        <v>22.28092640286906</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>40.84772480393949</v>
+        <v>40.73488999535773</v>
       </c>
       <c r="H9">
-        <v>31.07276070237723</v>
+        <v>40.89135583882918</v>
       </c>
       <c r="I9">
-        <v>12.18497295584254</v>
+        <v>31.02528331271419</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>12.18424231106011</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -710,37 +734,40 @@
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.65748330649768</v>
+        <v>32.65253023339043</v>
       </c>
       <c r="C10">
-        <v>32.02025259438776</v>
+        <v>32.00336144458072</v>
       </c>
       <c r="D10">
-        <v>12.35867885444285</v>
+        <v>12.35762054407565</v>
       </c>
       <c r="E10">
-        <v>24.77404185157716</v>
+        <v>24.77183942596494</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>44.86483919642449</v>
+        <v>44.91302044070819</v>
       </c>
       <c r="H10">
-        <v>33.68156180077741</v>
+        <v>44.90155895404984</v>
       </c>
       <c r="I10">
-        <v>13.49294071037096</v>
+        <v>33.62852625223672</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>13.49180749070867</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -748,37 +775,40 @@
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>34.03712374933674</v>
+        <v>34.03139980442128</v>
       </c>
       <c r="C11">
-        <v>33.42411056724836</v>
+        <v>33.40597278998663</v>
       </c>
       <c r="D11">
-        <v>12.90532315601105</v>
+        <v>12.90406460428966</v>
       </c>
       <c r="E11">
-        <v>25.89718336611141</v>
+        <v>25.89455332186892</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>46.81056474522054</v>
+        <v>46.86057152314454</v>
       </c>
       <c r="H11">
-        <v>34.8974633402829</v>
+        <v>46.80286919256047</v>
       </c>
       <c r="I11">
-        <v>14.08427659936352</v>
+        <v>34.84189781660336</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>14.08291683095203</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -786,37 +816,40 @@
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.55659269439479</v>
+        <v>34.5505574864958</v>
       </c>
       <c r="C12">
-        <v>33.95414235599187</v>
+        <v>33.93551232991737</v>
       </c>
       <c r="D12">
-        <v>13.11178366580141</v>
+        <v>13.11044241986635</v>
       </c>
       <c r="E12">
-        <v>26.32237186002889</v>
+        <v>26.31956436479797</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>47.54939385897033</v>
+        <v>47.60008051774434</v>
       </c>
       <c r="H12">
-        <v>35.36341370166605</v>
+        <v>47.52567803775198</v>
       </c>
       <c r="I12">
-        <v>14.30843497964433</v>
+        <v>35.30688403412442</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>14.30698088832419</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -824,37 +857,40 @@
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.44482409265292</v>
+        <v>34.43885687689379</v>
       </c>
       <c r="C13">
-        <v>33.84003286649776</v>
+        <v>33.82150986572743</v>
       </c>
       <c r="D13">
-        <v>13.067332085877</v>
+        <v>13.06600899073775</v>
       </c>
       <c r="E13">
-        <v>26.23077967188244</v>
+        <v>26.22801116756568</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>47.39014437506825</v>
+        <v>47.44068518747251</v>
       </c>
       <c r="H13">
-        <v>35.2627917520445</v>
+        <v>47.36984443547504</v>
       </c>
       <c r="I13">
-        <v>14.26013383325955</v>
+        <v>35.20647011874842</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>14.25870048195345</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -862,37 +898,40 @@
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34.07991185788394</v>
+        <v>34.07416272673014</v>
       </c>
       <c r="C14">
-        <v>33.46773834181316</v>
+        <v>33.44956051137989</v>
       </c>
       <c r="D14">
-        <v>12.92231584067992</v>
+        <v>12.92105063588806</v>
       </c>
       <c r="E14">
-        <v>25.93215720754379</v>
+        <v>25.92951290478513</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>46.87129412285872</v>
+        <v>46.92135708865523</v>
       </c>
       <c r="H14">
-        <v>34.93567765155722</v>
+        <v>46.86226497978095</v>
       </c>
       <c r="I14">
-        <v>14.10270851392695</v>
+        <v>34.88003297087203</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>14.1013411728936</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -900,37 +939,40 @@
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.85604897189796</v>
+        <v>33.85043073194309</v>
       </c>
       <c r="C15">
-        <v>33.23954227396005</v>
+        <v>33.2215730385867</v>
       </c>
       <c r="D15">
-        <v>12.83343811744608</v>
+        <v>12.83220741370091</v>
       </c>
       <c r="E15">
-        <v>25.74927312468968</v>
+        <v>25.74670272800573</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>46.55381839658445</v>
+        <v>46.60358705457539</v>
       </c>
       <c r="H15">
-        <v>34.73607586099938</v>
+        <v>46.5517948158761</v>
       </c>
       <c r="I15">
-        <v>14.00633717490605</v>
+        <v>34.6808448279839</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>14.00500907255328</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -938,37 +980,40 @@
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.56682836119854</v>
+        <v>32.56192325739188</v>
       </c>
       <c r="C16">
-        <v>31.92819684225955</v>
+        <v>31.91138469329603</v>
       </c>
       <c r="D16">
-        <v>12.32284418687191</v>
+        <v>12.32179811299328</v>
       </c>
       <c r="E16">
-        <v>24.70054298954493</v>
+        <v>24.69836659687066</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>44.73783973091158</v>
+        <v>44.78590029429099</v>
       </c>
       <c r="H16">
-        <v>33.60278972479027</v>
+        <v>44.77757788720395</v>
       </c>
       <c r="I16">
-        <v>13.45428231240815</v>
+        <v>33.54991902956142</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>13.45316284788013</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -976,37 +1021,40 @@
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.76918263872853</v>
+        <v>31.76468619182011</v>
       </c>
       <c r="C17">
-        <v>31.11921196258099</v>
+        <v>31.10308039221686</v>
       </c>
       <c r="D17">
-        <v>12.0079911769451</v>
+        <v>12.00704822916197</v>
       </c>
       <c r="E17">
-        <v>24.05540295906176</v>
+        <v>24.05344549899483</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>43.62502784897649</v>
+        <v>43.69188640182304</v>
       </c>
       <c r="H17">
-        <v>32.9158320674081</v>
+        <v>43.69188640182305</v>
       </c>
       <c r="I17">
-        <v>13.11515776032417</v>
+        <v>32.86440540892799</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>13.11415379082648</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1014,37 +1062,40 @@
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.30752456368447</v>
+        <v>31.30325401806099</v>
       </c>
       <c r="C18">
-        <v>30.65178790365864</v>
+        <v>30.63603874612888</v>
       </c>
       <c r="D18">
-        <v>11.82612496099104</v>
+        <v>11.82523813535752</v>
       </c>
       <c r="E18">
-        <v>23.68326397499967</v>
+        <v>23.68142530202407</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>43.00684844400121</v>
+        <v>43.06782901809905</v>
       </c>
       <c r="H18">
-        <v>32.52335420049911</v>
+        <v>43.0678290180991</v>
       </c>
       <c r="I18">
-        <v>12.91970220034933</v>
+        <v>32.47275842070486</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>12.91876075059503</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1052,37 +1103,40 @@
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.15068736272257</v>
+        <v>31.14649185388692</v>
       </c>
       <c r="C19">
-        <v>30.49312272402085</v>
+        <v>30.47750163639759</v>
       </c>
       <c r="D19">
-        <v>11.76440048196873</v>
+        <v>11.76353215430177</v>
       </c>
       <c r="E19">
-        <v>23.55704381121586</v>
+        <v>23.55524423413411</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>42.81071081341496</v>
+        <v>42.85655224947194</v>
       </c>
       <c r="H19">
-        <v>32.39088813751297</v>
+        <v>42.85655224947191</v>
       </c>
       <c r="I19">
-        <v>12.85343549457432</v>
+        <v>32.34057387832436</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>12.8525145980293</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1090,37 +1144,40 @@
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.85438246049138</v>
+        <v>31.84984348786961</v>
       </c>
       <c r="C20">
-        <v>31.20553925775469</v>
+        <v>31.18933620928268</v>
       </c>
       <c r="D20">
-        <v>12.04158391162548</v>
+        <v>12.04063032728824</v>
       </c>
       <c r="E20">
-        <v>24.12418129456139</v>
+        <v>24.12220129258835</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>43.74349332399238</v>
+        <v>43.80740586410646</v>
       </c>
       <c r="H20">
-        <v>32.98867821021986</v>
+        <v>43.80740586410645</v>
       </c>
       <c r="I20">
-        <v>13.15129466568457</v>
+        <v>32.93709783582347</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>13.15027882013257</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1128,37 +1185,40 @@
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>34.18716428802605</v>
+        <v>34.18135167226779</v>
       </c>
       <c r="C21">
-        <v>33.57711933608593</v>
+        <v>33.55884072410818</v>
       </c>
       <c r="D21">
-        <v>12.96492003674067</v>
+        <v>12.96363803206694</v>
       </c>
       <c r="E21">
-        <v>26.01986048698172</v>
+        <v>26.01718016539999</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>47.02361863905801</v>
+        <v>47.0738223044042</v>
       </c>
       <c r="H21">
-        <v>35.03159654376627</v>
+        <v>47.01125788927627</v>
       </c>
       <c r="I21">
-        <v>14.14893477872622</v>
+        <v>34.97575324891557</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>14.14754830323947</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1166,37 +1226,40 @@
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.69529993836819</v>
+        <v>35.68853849635765</v>
       </c>
       <c r="C22">
-        <v>35.11887512094427</v>
+        <v>35.09911807204877</v>
       </c>
       <c r="D22">
-        <v>13.56559720522698</v>
+        <v>13.56405915433564</v>
       </c>
       <c r="E22">
-        <v>27.25900892435766</v>
+        <v>27.25577719579712</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>49.18060872056961</v>
+        <v>49.23276475523672</v>
       </c>
       <c r="H22">
-        <v>36.55124523505751</v>
+        <v>49.12302143752252</v>
       </c>
       <c r="I22">
-        <v>14.8028180519388</v>
+        <v>36.4914234335569</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>14.80113780088575</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1204,37 +1267,40 @@
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.89137573729654</v>
+        <v>34.88513343610695</v>
       </c>
       <c r="C23">
-        <v>34.29616325783261</v>
+        <v>34.27720890655857</v>
       </c>
       <c r="D23">
-        <v>13.24502837898667</v>
+        <v>13.24363155388132</v>
       </c>
       <c r="E23">
-        <v>26.59708187584134</v>
+        <v>26.59415484360731</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>48.02732248054203</v>
+        <v>48.07844441108887</v>
       </c>
       <c r="H23">
-        <v>35.70554259332402</v>
+        <v>47.99347460684173</v>
       </c>
       <c r="I23">
-        <v>14.45334968429386</v>
+        <v>35.64716974654356</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>14.45183195910253</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1242,37 +1308,40 @@
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.81587330959364</v>
+        <v>31.81135359066914</v>
       </c>
       <c r="C24">
-        <v>31.16651804576589</v>
+        <v>31.15034733974514</v>
       </c>
       <c r="D24">
-        <v>12.02639933449695</v>
+        <v>12.02545056868406</v>
       </c>
       <c r="E24">
-        <v>24.09309056759513</v>
+        <v>24.09112077858296</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>43.68993666588348</v>
+        <v>43.75517927892369</v>
       </c>
       <c r="H24">
-        <v>32.95573689031171</v>
+        <v>43.75517927892377</v>
       </c>
       <c r="I24">
-        <v>13.13495874631907</v>
+        <v>32.90422600834268</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>13.13394828185672</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1280,42 +1349,48 @@
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.38567693783157</v>
+        <v>28.3826733652064</v>
       </c>
       <c r="C25">
-        <v>27.70640726457832</v>
+        <v>27.69290273281425</v>
       </c>
       <c r="D25">
-        <v>10.68115655542803</v>
+        <v>10.68057167387617</v>
       </c>
       <c r="E25">
-        <v>21.34817412163078</v>
+        <v>21.34696992904696</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>39.43168892000742</v>
+        <v>39.19544070238783</v>
       </c>
       <c r="H25">
-        <v>30.13119100400942</v>
+        <v>39.47401543751761</v>
       </c>
       <c r="I25">
-        <v>11.69593684052791</v>
+        <v>30.08578833046085</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>11.69532727201666</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_0/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_0/res_line/loading_percent.xlsx
@@ -420,120 +420,1128 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>35.66329991317021</v>
+      </c>
+      <c r="C2">
+        <v>21.10685969792383</v>
+      </c>
+      <c r="D2">
+        <v>6.502891372181476</v>
+      </c>
+      <c r="E2">
+        <v>5.842400641411652</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>2.180593458522042</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>5.034939552164977</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>8.951524343888854</v>
+      </c>
+      <c r="M2">
+        <v>21.03814217128184</v>
+      </c>
+      <c r="N2">
+        <v>23.22636549142041</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>33.92956257310063</v>
+      </c>
+      <c r="C3">
+        <v>19.78418065207782</v>
+      </c>
+      <c r="D3">
+        <v>6.477881437711186</v>
+      </c>
+      <c r="E3">
+        <v>5.770362351043105</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>2.200365964898115</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>4.850511351850833</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>8.862754503347631</v>
+      </c>
+      <c r="M3">
+        <v>20.38016715728821</v>
+      </c>
+      <c r="N3">
+        <v>22.96818301947771</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>32.86942196309091</v>
+      </c>
+      <c r="C4">
+        <v>18.95997634575361</v>
+      </c>
+      <c r="D4">
+        <v>6.466739231987718</v>
+      </c>
+      <c r="E4">
+        <v>5.726911075910247</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>2.212623445934128</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>4.736002663676494</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>8.815027616639988</v>
+      </c>
+      <c r="M4">
+        <v>19.99004784997349</v>
+      </c>
+      <c r="N4">
+        <v>22.81582507736337</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>32.43858082493711</v>
+      </c>
+      <c r="C5">
+        <v>18.62105748721864</v>
+      </c>
+      <c r="D5">
+        <v>6.463204719247504</v>
+      </c>
+      <c r="E5">
+        <v>5.709355484002665</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>2.217657950234238</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>4.688983577482279</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>8.797191420588403</v>
+      </c>
+      <c r="M5">
+        <v>19.83446075342545</v>
+      </c>
+      <c r="N5">
+        <v>22.75517231828411</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>32.36711562659961</v>
+      </c>
+      <c r="C6">
+        <v>18.56459807558776</v>
+      </c>
+      <c r="D6">
+        <v>6.462677101013184</v>
+      </c>
+      <c r="E6">
+        <v>5.706448318632884</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>2.21849658029657</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>4.681153725904933</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>8.794324621466956</v>
+      </c>
+      <c r="M6">
+        <v>19.80882802916389</v>
+      </c>
+      <c r="N6">
+        <v>22.74518445573081</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>32.86360653781501</v>
+      </c>
+      <c r="C7">
+        <v>18.95541784122262</v>
+      </c>
+      <c r="D7">
+        <v>6.46668755827213</v>
+      </c>
+      <c r="E7">
+        <v>5.726673758150738</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>2.212691170801678</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>4.735370029647488</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>8.814780656066654</v>
+      </c>
+      <c r="M7">
+        <v>19.9879359324546</v>
+      </c>
+      <c r="N7">
+        <v>22.81500142943785</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>35.06459704559054</v>
+      </c>
+      <c r="C8">
+        <v>20.6532594187807</v>
+      </c>
+      <c r="D8">
+        <v>6.493359428756021</v>
+      </c>
+      <c r="E8">
+        <v>5.817370585498076</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>2.187393184058027</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>4.971586428121873</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>8.919451878182192</v>
+      </c>
+      <c r="M8">
+        <v>20.8083193651003</v>
+      </c>
+      <c r="N8">
+        <v>23.13598942325224</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>39.4209424892992</v>
+      </c>
+      <c r="C9">
+        <v>23.89458988271405</v>
+      </c>
+      <c r="D9">
+        <v>6.581834883035782</v>
+      </c>
+      <c r="E9">
+        <v>6.00386914996744</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>2.138177784009736</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>5.427085951016627</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>9.183171375734711</v>
+      </c>
+      <c r="M9">
+        <v>22.53428127834055</v>
+      </c>
+      <c r="N9">
+        <v>23.82057141791367</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>42.66940425641778</v>
+      </c>
+      <c r="C10">
+        <v>26.24459988179027</v>
+      </c>
+      <c r="D10">
+        <v>6.673356898497225</v>
+      </c>
+      <c r="E10">
+        <v>6.150428838395733</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>2.101346230536712</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>5.761639042389864</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>9.420280586870183</v>
+      </c>
+      <c r="M10">
+        <v>23.88914236769394</v>
+      </c>
+      <c r="N10">
+        <v>24.36773567757898</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>44.16829270659819</v>
+      </c>
+      <c r="C11">
+        <v>27.32101653398458</v>
+      </c>
+      <c r="D11">
+        <v>6.722005496535047</v>
+      </c>
+      <c r="E11">
+        <v>6.220466441354376</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>2.084175405348286</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>5.915336577917886</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>9.539770415693754</v>
+      </c>
+      <c r="M11">
+        <v>24.529949080686</v>
+      </c>
+      <c r="N11">
+        <v>24.62939004551514</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>44.74031728213374</v>
+      </c>
+      <c r="C12">
+        <v>27.74585587698131</v>
+      </c>
+      <c r="D12">
+        <v>6.741569554175497</v>
+      </c>
+      <c r="E12">
+        <v>6.247616875465298</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>2.07758391713274</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>5.973931933873302</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>9.586929552201017</v>
+      </c>
+      <c r="M12">
+        <v>24.77681551313713</v>
+      </c>
+      <c r="N12">
+        <v>24.73065030549187</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>44.61689705109653</v>
+      </c>
+      <c r="C13">
+        <v>27.6543147876156</v>
+      </c>
+      <c r="D13">
+        <v>6.737302839450178</v>
+      </c>
+      <c r="E13">
+        <v>6.241738845774029</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>2.079008033739631</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>5.961291491412743</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>9.576683537929203</v>
+      </c>
+      <c r="M13">
+        <v>24.72344780048921</v>
+      </c>
+      <c r="N13">
+        <v>24.70873878326949</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>44.21525501764837</v>
+      </c>
+      <c r="C14">
+        <v>27.35595048847491</v>
+      </c>
+      <c r="D14">
+        <v>6.723591284051261</v>
+      </c>
+      <c r="E14">
+        <v>6.222686552908114</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>2.083635104546007</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>5.920148167672685</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>9.543610343899319</v>
+      </c>
+      <c r="M14">
+        <v>24.55016983829789</v>
+      </c>
+      <c r="N14">
+        <v>24.6376748514484</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>43.96986405136345</v>
+      </c>
+      <c r="C15">
+        <v>27.17431827589012</v>
+      </c>
+      <c r="D15">
+        <v>6.715345746439137</v>
+      </c>
+      <c r="E15">
+        <v>6.211103314362607</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>2.086456691313112</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>5.895004064968382</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>9.523609027577418</v>
+      </c>
+      <c r="M15">
+        <v>24.44460432781986</v>
+      </c>
+      <c r="N15">
+        <v>24.59444146397644</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>42.57198150824226</v>
+      </c>
+      <c r="C16">
+        <v>26.17472686616348</v>
+      </c>
+      <c r="D16">
+        <v>6.670329466614364</v>
+      </c>
+      <c r="E16">
+        <v>6.145930965662118</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>2.102457659647913</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>5.751638843989924</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>9.412724744984473</v>
+      </c>
+      <c r="M16">
+        <v>23.84781029621975</v>
+      </c>
+      <c r="N16">
+        <v>24.35091993498567</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>41.72068165099987</v>
+      </c>
+      <c r="C17">
+        <v>25.56271336111195</v>
+      </c>
+      <c r="D17">
+        <v>6.644595880952122</v>
+      </c>
+      <c r="E17">
+        <v>6.106903575933916</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>2.112148423833204</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>5.664185487262712</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>9.347831582815664</v>
+      </c>
+      <c r="M17">
+        <v>23.488385833725</v>
+      </c>
+      <c r="N17">
+        <v>24.20501104430167</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>41.23291874580931</v>
+      </c>
+      <c r="C18">
+        <v>25.21081330847059</v>
+      </c>
+      <c r="D18">
+        <v>6.630445413760968</v>
+      </c>
+      <c r="E18">
+        <v>6.084762416361063</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>2.117685267529645</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>5.61401341147569</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>9.31158405541626</v>
+      </c>
+      <c r="M18">
+        <v>23.28390542633323</v>
+      </c>
+      <c r="N18">
+        <v>24.12226293418336</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>41.06805929411868</v>
+      </c>
+      <c r="C19">
+        <v>25.09165786457172</v>
+      </c>
+      <c r="D19">
+        <v>6.625762495704953</v>
+      </c>
+      <c r="E19">
+        <v>6.077314611056694</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>2.119554371707035</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>5.597043540561958</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>9.299489919128083</v>
+      </c>
+      <c r="M19">
+        <v>23.21504109467746</v>
+      </c>
+      <c r="N19">
+        <v>24.09443848987178</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>41.81110065342543</v>
+      </c>
+      <c r="C20">
+        <v>25.62784466450026</v>
+      </c>
+      <c r="D20">
+        <v>6.647267037892019</v>
+      </c>
+      <c r="E20">
+        <v>6.111025473764378</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>2.111120848136473</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>5.673480597970242</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>9.354626525474414</v>
+      </c>
+      <c r="M20">
+        <v>23.52640993988192</v>
+      </c>
+      <c r="N20">
+        <v>24.22041948339528</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>44.33309327101638</v>
+      </c>
+      <c r="C21">
+        <v>27.44356286703245</v>
+      </c>
+      <c r="D21">
+        <v>6.727586493142355</v>
+      </c>
+      <c r="E21">
+        <v>6.228264259084081</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>2.082278716959112</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>5.932220610654003</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>9.553270675406015</v>
+      </c>
+      <c r="M21">
+        <v>24.60094494898865</v>
+      </c>
+      <c r="N21">
+        <v>24.65848575819144</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>46.00821080126983</v>
+      </c>
+      <c r="C22">
+        <v>28.68260607611437</v>
+      </c>
+      <c r="D22">
+        <v>6.786822246078763</v>
+      </c>
+      <c r="E22">
+        <v>6.308650069120625</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>2.062888699499898</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>6.103739134383612</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>9.694393528458619</v>
+      </c>
+      <c r="M22">
+        <v>25.32824196082458</v>
+      </c>
+      <c r="N22">
+        <v>24.95771108113744</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>45.11111403538882</v>
+      </c>
+      <c r="C23">
+        <v>28.02048528149188</v>
+      </c>
+      <c r="D23">
+        <v>6.754537375810574</v>
+      </c>
+      <c r="E23">
+        <v>6.265343350182675</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>2.073298779169351</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>6.011902236290081</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>9.617944019587362</v>
+      </c>
+      <c r="M23">
+        <v>24.93748703740228</v>
+      </c>
+      <c r="N23">
+        <v>24.79668717722595</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>41.77021714734102</v>
+      </c>
+      <c r="C24">
+        <v>25.59839902047068</v>
+      </c>
+      <c r="D24">
+        <v>6.646057411189085</v>
+      </c>
+      <c r="E24">
+        <v>6.109161051489586</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>2.111585520468664</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>5.669277960774525</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>9.351551246124046</v>
+      </c>
+      <c r="M24">
+        <v>23.50921256991666</v>
+      </c>
+      <c r="N24">
+        <v>24.21344981176617</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>38.23659417317749</v>
+      </c>
+      <c r="C25">
+        <v>23.02549196218079</v>
+      </c>
+      <c r="D25">
+        <v>6.55360890618657</v>
+      </c>
+      <c r="E25">
+        <v>5.952104461843699</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>2.151533318157705</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>5.304291740264256</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>9.104851431000087</v>
+      </c>
+      <c r="M25">
+        <v>22.05356267100217</v>
+      </c>
+      <c r="N25">
+        <v>23.62850243063838</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_0/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_0/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>35.66329991317021</v>
+        <v>41.81968580500756</v>
       </c>
       <c r="C2">
-        <v>21.10685969792383</v>
+        <v>19.72484728363376</v>
       </c>
       <c r="D2">
-        <v>6.502891372181476</v>
+        <v>11.12811060419194</v>
       </c>
       <c r="E2">
-        <v>5.842400641411652</v>
+        <v>9.042288778937897</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.180593458522042</v>
+        <v>3.929090748422566</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.034939552164977</v>
+        <v>6.676064186320634</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>8.951524343888854</v>
+        <v>14.80184051889697</v>
       </c>
       <c r="M2">
-        <v>21.03814217128184</v>
+        <v>29.71305897150825</v>
       </c>
       <c r="N2">
-        <v>23.22636549142041</v>
+        <v>29.5381333998286</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>33.92956257310063</v>
+        <v>41.62657699828047</v>
       </c>
       <c r="C3">
-        <v>19.78418065207782</v>
+        <v>19.46864753596805</v>
       </c>
       <c r="D3">
-        <v>6.477881437711186</v>
+        <v>11.15246419390172</v>
       </c>
       <c r="E3">
-        <v>5.770362351043105</v>
+        <v>9.028133989954034</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.200365964898115</v>
+        <v>3.935420095840056</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>4.850511351850833</v>
+        <v>6.684976690597018</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>8.862754503347631</v>
+        <v>14.8296264514482</v>
       </c>
       <c r="M3">
-        <v>20.38016715728821</v>
+        <v>29.70262071842842</v>
       </c>
       <c r="N3">
-        <v>22.96818301947771</v>
+        <v>29.46644932299319</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>32.86942196309091</v>
+        <v>41.51913942877939</v>
       </c>
       <c r="C4">
-        <v>18.95997634575361</v>
+        <v>19.31638728111385</v>
       </c>
       <c r="D4">
-        <v>6.466739231987718</v>
+        <v>11.16900268920494</v>
       </c>
       <c r="E4">
-        <v>5.726911075910247</v>
+        <v>9.019294785846288</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.212623445934128</v>
+        <v>3.939498984438616</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>4.736002663676494</v>
+        <v>6.691722240149192</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>8.815027616639988</v>
+        <v>14.84909188408768</v>
       </c>
       <c r="M4">
-        <v>19.99004784997349</v>
+        <v>29.70279658987139</v>
       </c>
       <c r="N4">
-        <v>22.81582507736337</v>
+        <v>29.4234364964641</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>32.43858082493711</v>
+        <v>41.47817857120293</v>
       </c>
       <c r="C5">
-        <v>18.62105748721864</v>
+        <v>19.25567685958344</v>
       </c>
       <c r="D5">
-        <v>6.463204719247504</v>
+        <v>11.1761407195411</v>
       </c>
       <c r="E5">
-        <v>5.709355484002665</v>
+        <v>9.015655014424995</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.217657950234238</v>
+        <v>3.941209847264974</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>4.688983577482279</v>
+        <v>6.694790398198344</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>8.797191420588403</v>
+        <v>14.85762797070824</v>
       </c>
       <c r="M5">
-        <v>19.83446075342545</v>
+        <v>29.70452133831072</v>
       </c>
       <c r="N5">
-        <v>22.75517231828411</v>
+        <v>29.40616152897514</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>32.36711562659961</v>
+        <v>41.47154797351559</v>
       </c>
       <c r="C6">
-        <v>18.56459807558776</v>
+        <v>19.24567859592596</v>
       </c>
       <c r="D6">
-        <v>6.462677101013184</v>
+        <v>11.17735004479958</v>
       </c>
       <c r="E6">
-        <v>5.706448318632884</v>
+        <v>9.015048340653737</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.21849658029657</v>
+        <v>3.941496882092795</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>4.681153725904933</v>
+        <v>6.695319121287261</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>8.794324621466956</v>
+        <v>14.85908181930355</v>
       </c>
       <c r="M6">
-        <v>19.80882802916389</v>
+        <v>29.70490747541375</v>
       </c>
       <c r="N6">
-        <v>22.74518445573081</v>
+        <v>29.4033083543685</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>32.86360653781501</v>
+        <v>41.51857556935373</v>
       </c>
       <c r="C7">
-        <v>18.95541784122262</v>
+        <v>19.31556301922101</v>
       </c>
       <c r="D7">
-        <v>6.46668755827213</v>
+        <v>11.1690973420526</v>
       </c>
       <c r="E7">
-        <v>5.726673758150738</v>
+        <v>9.0192458519965</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.212691170801678</v>
+        <v>3.939521860298498</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>4.735370029647488</v>
+        <v>6.691762326788014</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>8.814780656066654</v>
+        <v>14.84920456135603</v>
       </c>
       <c r="M7">
-        <v>19.9879359324546</v>
+        <v>29.70281316143327</v>
       </c>
       <c r="N7">
-        <v>22.81500142943785</v>
+        <v>29.42320249384055</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>35.06459704559054</v>
+        <v>41.75080560211</v>
       </c>
       <c r="C8">
-        <v>20.6532594187807</v>
+        <v>19.63550356488874</v>
       </c>
       <c r="D8">
-        <v>6.493359428756021</v>
+        <v>11.13617858959217</v>
       </c>
       <c r="E8">
-        <v>5.817370585498076</v>
+        <v>9.037438654315503</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.187393184058027</v>
+        <v>3.931233269706005</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>4.971586428121873</v>
+        <v>6.678872447628338</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>8.919451878182192</v>
+        <v>14.81092145083797</v>
       </c>
       <c r="M8">
-        <v>20.8083193651003</v>
+        <v>29.70809172286428</v>
       </c>
       <c r="N8">
-        <v>23.13598942325224</v>
+        <v>29.51320967721567</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>39.4209424892992</v>
+        <v>42.29340582060071</v>
       </c>
       <c r="C9">
-        <v>23.89458988271405</v>
+        <v>20.2998420610836</v>
       </c>
       <c r="D9">
-        <v>6.581834883035782</v>
+        <v>11.08421200836722</v>
       </c>
       <c r="E9">
-        <v>6.00386914996744</v>
+        <v>9.071962369047377</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.138177784009736</v>
+        <v>3.916496902959245</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.427085951016627</v>
+        <v>6.663735539809862</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.183171375734711</v>
+        <v>14.75497055215338</v>
       </c>
       <c r="M9">
-        <v>22.53428127834055</v>
+        <v>29.77078369121423</v>
       </c>
       <c r="N9">
-        <v>23.82057141791367</v>
+        <v>29.69760336415244</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>42.66940425641778</v>
+        <v>42.74345007531227</v>
       </c>
       <c r="C10">
-        <v>26.24459988179027</v>
+        <v>20.80613798154306</v>
       </c>
       <c r="D10">
-        <v>6.673356898497225</v>
+        <v>11.05371787231112</v>
       </c>
       <c r="E10">
-        <v>6.150428838395733</v>
+        <v>9.096657744773493</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.101346230536712</v>
+        <v>3.906579777276611</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.761639042389864</v>
+        <v>6.658845288941557</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.420280586870183</v>
+        <v>14.72557740914103</v>
       </c>
       <c r="M10">
-        <v>23.88914236769394</v>
+        <v>29.84883063461644</v>
       </c>
       <c r="N10">
-        <v>24.36773567757898</v>
+        <v>29.8378116559472</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>44.16829270659819</v>
+        <v>42.95889677235646</v>
       </c>
       <c r="C11">
-        <v>27.32101653398458</v>
+        <v>21.03948064650939</v>
       </c>
       <c r="D11">
-        <v>6.722005496535047</v>
+        <v>11.04151684371811</v>
       </c>
       <c r="E11">
-        <v>6.220466441354376</v>
+        <v>9.107754301821046</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.084175405348286</v>
+        <v>3.902262415550502</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.915336577917886</v>
+        <v>6.657982874647367</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.539770415693754</v>
+        <v>14.71476069161375</v>
       </c>
       <c r="M11">
-        <v>24.529949080686</v>
+        <v>29.89128035756569</v>
       </c>
       <c r="N11">
-        <v>24.62939004551514</v>
+        <v>29.90260469906255</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>44.74031728213374</v>
+        <v>43.04197907435984</v>
       </c>
       <c r="C12">
-        <v>27.74585587698131</v>
+        <v>21.12819802861126</v>
       </c>
       <c r="D12">
-        <v>6.741569554175497</v>
+        <v>11.03713711638122</v>
       </c>
       <c r="E12">
-        <v>6.247616875465298</v>
+        <v>9.11193706523485</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.07758391713274</v>
+        <v>3.900655176522969</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.973931933873302</v>
+        <v>6.657852808765279</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.586929552201017</v>
+        <v>14.7110328287712</v>
       </c>
       <c r="M12">
-        <v>24.77681551313713</v>
+        <v>29.90835184350541</v>
       </c>
       <c r="N12">
-        <v>24.73065030549187</v>
+        <v>29.92728337942351</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>44.61689705109653</v>
+        <v>43.02401995359516</v>
       </c>
       <c r="C13">
-        <v>27.6543147876156</v>
+        <v>21.10907659548122</v>
       </c>
       <c r="D13">
-        <v>6.737302839450178</v>
+        <v>11.0380696669338</v>
       </c>
       <c r="E13">
-        <v>6.241738845774029</v>
+        <v>9.11103708081486</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.079008033739631</v>
+        <v>3.901000098248485</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.961291491412743</v>
+        <v>6.657872071558699</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.576683537929203</v>
+        <v>14.71181930178004</v>
       </c>
       <c r="M13">
-        <v>24.72344780048921</v>
+        <v>29.90463090845673</v>
       </c>
       <c r="N13">
-        <v>24.70873878326949</v>
+        <v>29.92196206746702</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>44.21525501764837</v>
+        <v>42.96570225791588</v>
       </c>
       <c r="C14">
-        <v>27.35595048847491</v>
+        <v>21.04677280505723</v>
       </c>
       <c r="D14">
-        <v>6.723591284051261</v>
+        <v>11.04115169869889</v>
       </c>
       <c r="E14">
-        <v>6.222686552908114</v>
+        <v>9.108098803381827</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.083635104546007</v>
+        <v>3.902129634235084</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.920148167672685</v>
+        <v>6.657968232295694</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.543610343899319</v>
+        <v>14.71444661410281</v>
       </c>
       <c r="M14">
-        <v>24.55016983829789</v>
+        <v>29.89266487903819</v>
       </c>
       <c r="N14">
-        <v>24.6376748514484</v>
+        <v>29.90463217877762</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>43.96986405136345</v>
+        <v>42.93017462103423</v>
       </c>
       <c r="C15">
-        <v>27.17431827589012</v>
+        <v>21.0086538951844</v>
       </c>
       <c r="D15">
-        <v>6.715345746439137</v>
+        <v>11.04307086492849</v>
       </c>
       <c r="E15">
-        <v>6.211103314362607</v>
+        <v>9.106296530361593</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.086456691313112</v>
+        <v>3.902825101533704</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.895004064968382</v>
+        <v>6.658052742685445</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.523609027577418</v>
+        <v>14.71610389359946</v>
       </c>
       <c r="M15">
-        <v>24.44460432781986</v>
+        <v>29.88546506167057</v>
       </c>
       <c r="N15">
-        <v>24.59444146397644</v>
+        <v>29.89403566196685</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>42.57198150824226</v>
+        <v>42.72958212366332</v>
       </c>
       <c r="C16">
-        <v>26.17472686616348</v>
+        <v>20.79094256203846</v>
       </c>
       <c r="D16">
-        <v>6.670329466614364</v>
+        <v>11.0545488837527</v>
       </c>
       <c r="E16">
-        <v>6.145930965662118</v>
+        <v>9.095929835390454</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.102457659647913</v>
+        <v>3.906865809800785</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.751638843989924</v>
+        <v>6.658929115931294</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.412724744984473</v>
+        <v>14.72633578372379</v>
       </c>
       <c r="M16">
-        <v>23.84781029621975</v>
+        <v>29.84619605428112</v>
       </c>
       <c r="N16">
-        <v>24.35091993498567</v>
+        <v>29.83359742390962</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>41.72068165099987</v>
+        <v>42.60924016061856</v>
       </c>
       <c r="C17">
-        <v>25.56271336111195</v>
+        <v>20.65810191888265</v>
       </c>
       <c r="D17">
-        <v>6.644595880952122</v>
+        <v>11.06201842474612</v>
       </c>
       <c r="E17">
-        <v>6.106903575933916</v>
+        <v>9.089535349367756</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.112148423833204</v>
+        <v>3.909394165845525</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.664185487262712</v>
+        <v>6.659816101933124</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.347831582815664</v>
+        <v>14.7332675929169</v>
       </c>
       <c r="M17">
-        <v>23.488385833725</v>
+        <v>29.82388357565884</v>
       </c>
       <c r="N17">
-        <v>24.20501104430167</v>
+        <v>29.79677788910587</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>41.23291874580931</v>
+        <v>42.54103443707526</v>
       </c>
       <c r="C18">
-        <v>25.21081330847059</v>
+        <v>20.58198505835169</v>
       </c>
       <c r="D18">
-        <v>6.630445413760968</v>
+        <v>11.06647196549892</v>
       </c>
       <c r="E18">
-        <v>6.084762416361063</v>
+        <v>9.085844437849723</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.117685267529645</v>
+        <v>3.910866683086393</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.61401341147569</v>
+        <v>6.660454454847735</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.31158405541626</v>
+        <v>14.73749496640857</v>
       </c>
       <c r="M18">
-        <v>23.28390542633323</v>
+        <v>29.81170398314454</v>
       </c>
       <c r="N18">
-        <v>24.12226293418336</v>
+        <v>29.77569564340567</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>41.06805929411868</v>
+        <v>42.51811622211834</v>
       </c>
       <c r="C19">
-        <v>25.09165786457172</v>
+        <v>20.55626536745984</v>
       </c>
       <c r="D19">
-        <v>6.625762495704953</v>
+        <v>11.06800685902617</v>
       </c>
       <c r="E19">
-        <v>6.077314611056694</v>
+        <v>9.084592515203857</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.119554371707035</v>
+        <v>3.911368398038544</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.597043540561958</v>
+        <v>6.660692585177451</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.299489919128083</v>
+        <v>14.73896754036012</v>
       </c>
       <c r="M19">
-        <v>23.21504109467746</v>
+        <v>29.80769254821672</v>
       </c>
       <c r="N19">
-        <v>24.09443848987178</v>
+        <v>29.76857401160591</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>41.81110065342543</v>
+        <v>42.6219463617452</v>
       </c>
       <c r="C20">
-        <v>25.62784466450026</v>
+        <v>20.67221364245174</v>
       </c>
       <c r="D20">
-        <v>6.647267037892019</v>
+        <v>11.06120700179645</v>
       </c>
       <c r="E20">
-        <v>6.111025473764378</v>
+        <v>9.090217392227681</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.111120848136473</v>
+        <v>3.909123128527356</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.673480597970242</v>
+        <v>6.659708409617536</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.354626525474414</v>
+        <v>14.73250480504861</v>
       </c>
       <c r="M20">
-        <v>23.52640993988192</v>
+        <v>29.82619110747584</v>
       </c>
       <c r="N20">
-        <v>24.22041948339528</v>
+        <v>29.80068753788554</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>44.33309327101638</v>
+        <v>42.98279130798356</v>
       </c>
       <c r="C21">
-        <v>27.44356286703245</v>
+        <v>21.0650639178131</v>
       </c>
       <c r="D21">
-        <v>6.727586493142355</v>
+        <v>11.04023990107639</v>
       </c>
       <c r="E21">
-        <v>6.228264259084081</v>
+        <v>9.108962365367185</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.082278716959112</v>
+        <v>3.901797113605542</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.932220610654003</v>
+        <v>6.657934649600832</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.553270675406015</v>
+        <v>14.71366490937465</v>
       </c>
       <c r="M21">
-        <v>24.60094494898865</v>
+        <v>29.89615256319768</v>
       </c>
       <c r="N21">
-        <v>24.65848575819144</v>
+        <v>29.9097185280522</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>46.00821080126983</v>
+        <v>43.22732939335394</v>
       </c>
       <c r="C22">
-        <v>28.68260607611437</v>
+        <v>21.32385074217938</v>
       </c>
       <c r="D22">
-        <v>6.786822246078763</v>
+        <v>11.02793884283759</v>
       </c>
       <c r="E22">
-        <v>6.308650069120625</v>
+        <v>9.12110125617863</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.062888699499898</v>
+        <v>3.897170203702787</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.103739134383612</v>
+        <v>6.65792105886476</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.694393528458619</v>
+        <v>14.70349843281519</v>
       </c>
       <c r="M22">
-        <v>25.32824196082458</v>
+        <v>29.94768430309261</v>
       </c>
       <c r="N22">
-        <v>24.95771108113744</v>
+        <v>29.98180858631494</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>45.11111403538882</v>
+        <v>43.09603360696578</v>
       </c>
       <c r="C23">
-        <v>28.02048528149188</v>
+        <v>21.18557102746519</v>
       </c>
       <c r="D23">
-        <v>6.754537375810574</v>
+        <v>11.03437576643337</v>
       </c>
       <c r="E23">
-        <v>6.265343350182675</v>
+        <v>9.114632582965598</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.073298779169351</v>
+        <v>3.899625015800409</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.011902236290081</v>
+        <v>6.657823293681647</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.617944019587362</v>
+        <v>14.7087277920689</v>
       </c>
       <c r="M23">
-        <v>24.93748703740228</v>
+        <v>29.91965035523804</v>
       </c>
       <c r="N23">
-        <v>24.79668717722595</v>
+        <v>29.94325750908726</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>41.77021714734102</v>
+        <v>42.61619883094806</v>
       </c>
       <c r="C24">
-        <v>25.59839902047068</v>
+        <v>20.66583293192809</v>
       </c>
       <c r="D24">
-        <v>6.646057411189085</v>
+        <v>11.06157335025286</v>
       </c>
       <c r="E24">
-        <v>6.109161051489586</v>
+        <v>9.089909086278089</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.111585520468664</v>
+        <v>3.909245605512405</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.669277960774525</v>
+        <v>6.659756697384618</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.351551246124046</v>
+        <v>14.73284890716178</v>
       </c>
       <c r="M24">
-        <v>23.50921256991666</v>
+        <v>29.82514585335498</v>
       </c>
       <c r="N24">
-        <v>24.21344981176617</v>
+        <v>29.79891971825119</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>38.23659417317749</v>
+        <v>42.137450128583</v>
       </c>
       <c r="C25">
-        <v>23.02549196218079</v>
+        <v>20.116606233903</v>
       </c>
       <c r="D25">
-        <v>6.55360890618657</v>
+        <v>11.09692152646299</v>
       </c>
       <c r="E25">
-        <v>5.952104461843699</v>
+        <v>9.062742724471045</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.151533318157705</v>
+        <v>3.920322612248976</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.304291740264256</v>
+        <v>6.666739577155578</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.104851431000087</v>
+        <v>14.76805356871254</v>
       </c>
       <c r="M25">
-        <v>22.05356267100217</v>
+        <v>29.74820862432848</v>
       </c>
       <c r="N25">
-        <v>23.62850243063838</v>
+        <v>29.6468823492705</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_0/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_0/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,78 +415,84 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>

--- a/Code/Results/Cases/Case_4_0/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_0/res_line/loading_percent.xlsx
@@ -426,120 +426,1272 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>13.51961068986292</v>
+      </c>
+      <c r="C2">
+        <v>6.279756989264795</v>
+      </c>
+      <c r="D2">
+        <v>8.869974494422301</v>
+      </c>
+      <c r="E2">
+        <v>7.391613307393488</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>52.4911283505925</v>
+      </c>
+      <c r="H2">
+        <v>4.657760558152254</v>
+      </c>
+      <c r="I2">
+        <v>5.082111390261814</v>
+      </c>
+      <c r="J2">
+        <v>16.09597138946696</v>
+      </c>
+      <c r="K2">
+        <v>26.78025556078245</v>
+      </c>
+      <c r="L2">
+        <v>4.253253743440644</v>
+      </c>
+      <c r="M2">
+        <v>11.03424937004857</v>
+      </c>
+      <c r="N2">
+        <v>7.689716336192803</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>12.71598599768136</v>
+      </c>
+      <c r="C3">
+        <v>5.856429993653082</v>
+      </c>
+      <c r="D3">
+        <v>8.566446943817578</v>
+      </c>
+      <c r="E3">
+        <v>7.161303813014619</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>50.92169155523265</v>
+      </c>
+      <c r="H3">
+        <v>4.929532797439426</v>
+      </c>
+      <c r="I3">
+        <v>5.298602824160499</v>
+      </c>
+      <c r="J3">
+        <v>15.84456445111311</v>
+      </c>
+      <c r="K3">
+        <v>26.27509884264762</v>
+      </c>
+      <c r="L3">
+        <v>4.167548426432023</v>
+      </c>
+      <c r="M3">
+        <v>10.43396057499086</v>
+      </c>
+      <c r="N3">
+        <v>7.446422584322186</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>12.19764637002224</v>
+      </c>
+      <c r="C4">
+        <v>5.586035995284185</v>
+      </c>
+      <c r="D4">
+        <v>8.376102900064089</v>
+      </c>
+      <c r="E4">
+        <v>7.015151772165982</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>49.93164937296655</v>
+      </c>
+      <c r="H4">
+        <v>5.102170242929804</v>
+      </c>
+      <c r="I4">
+        <v>5.436559345989379</v>
+      </c>
+      <c r="J4">
+        <v>15.68835517365966</v>
+      </c>
+      <c r="K4">
+        <v>25.95779465659654</v>
+      </c>
+      <c r="L4">
+        <v>4.113154744263166</v>
+      </c>
+      <c r="M4">
+        <v>10.05122223483857</v>
+      </c>
+      <c r="N4">
+        <v>7.294002012725101</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>11.97879629520408</v>
+      </c>
+      <c r="C5">
+        <v>5.480031618403908</v>
+      </c>
+      <c r="D5">
+        <v>8.296732034720824</v>
+      </c>
+      <c r="E5">
+        <v>6.95298686164952</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>49.48376628332055</v>
+      </c>
+      <c r="H5">
+        <v>5.174540753811917</v>
+      </c>
+      <c r="I5">
+        <v>5.496389621799879</v>
+      </c>
+      <c r="J5">
+        <v>15.6165544349663</v>
+      </c>
+      <c r="K5">
+        <v>25.81003640652416</v>
+      </c>
+      <c r="L5">
+        <v>4.090228967896107</v>
+      </c>
+      <c r="M5">
+        <v>9.893656978757527</v>
+      </c>
+      <c r="N5">
+        <v>7.232076290831708</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>11.940281189438</v>
+      </c>
+      <c r="C6">
+        <v>5.470632198733993</v>
+      </c>
+      <c r="D6">
+        <v>8.282402194397561</v>
+      </c>
+      <c r="E6">
+        <v>6.940823140698739</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>49.36227558186111</v>
+      </c>
+      <c r="H6">
+        <v>5.187309382031797</v>
+      </c>
+      <c r="I6">
+        <v>5.509346404418965</v>
+      </c>
+      <c r="J6">
+        <v>15.59516347297332</v>
+      </c>
+      <c r="K6">
+        <v>25.76490670039203</v>
+      </c>
+      <c r="L6">
+        <v>4.086021836220486</v>
+      </c>
+      <c r="M6">
+        <v>9.869505450267956</v>
+      </c>
+      <c r="N6">
+        <v>7.222842631463617</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>12.18985946591264</v>
+      </c>
+      <c r="C7">
+        <v>5.606868145863482</v>
+      </c>
+      <c r="D7">
+        <v>8.372073886622406</v>
+      </c>
+      <c r="E7">
+        <v>7.009534668730856</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>49.79927940790129</v>
+      </c>
+      <c r="H7">
+        <v>5.104924953451977</v>
+      </c>
+      <c r="I7">
+        <v>5.445179076177788</v>
+      </c>
+      <c r="J7">
+        <v>15.66176081372491</v>
+      </c>
+      <c r="K7">
+        <v>25.90022246220957</v>
+      </c>
+      <c r="L7">
+        <v>4.111843778961972</v>
+      </c>
+      <c r="M7">
+        <v>10.05500654452048</v>
+      </c>
+      <c r="N7">
+        <v>7.296117927809338</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>13.24166115823623</v>
+      </c>
+      <c r="C8">
+        <v>6.162969395016998</v>
+      </c>
+      <c r="D8">
+        <v>8.762449559224498</v>
+      </c>
+      <c r="E8">
+        <v>7.307134443742874</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>51.79487921278763</v>
+      </c>
+      <c r="H8">
+        <v>4.752552189568951</v>
+      </c>
+      <c r="I8">
+        <v>5.165636037769526</v>
+      </c>
+      <c r="J8">
+        <v>15.97659049427787</v>
+      </c>
+      <c r="K8">
+        <v>26.53597772183736</v>
+      </c>
+      <c r="L8">
+        <v>4.22279646441129</v>
+      </c>
+      <c r="M8">
+        <v>10.83746275675039</v>
+      </c>
+      <c r="N8">
+        <v>7.610268972151147</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>15.11084858360099</v>
+      </c>
+      <c r="C9">
+        <v>7.136284011094188</v>
+      </c>
+      <c r="D9">
+        <v>9.497733601697824</v>
+      </c>
+      <c r="E9">
+        <v>7.859880980723921</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>55.69563471176507</v>
+      </c>
+      <c r="H9">
+        <v>4.103044366928684</v>
+      </c>
+      <c r="I9">
+        <v>4.643543797032389</v>
+      </c>
+      <c r="J9">
+        <v>16.62186608720297</v>
+      </c>
+      <c r="K9">
+        <v>27.81766498167521</v>
+      </c>
+      <c r="L9">
+        <v>4.428461789790497</v>
+      </c>
+      <c r="M9">
+        <v>12.38562900094952</v>
+      </c>
+      <c r="N9">
+        <v>8.194788173195274</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>16.35088765218695</v>
+      </c>
+      <c r="C10">
+        <v>7.83061537041905</v>
+      </c>
+      <c r="D10">
+        <v>9.946688133080473</v>
+      </c>
+      <c r="E10">
+        <v>8.142015665349884</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>57.81284486651995</v>
+      </c>
+      <c r="H10">
+        <v>3.679872576737115</v>
+      </c>
+      <c r="I10">
+        <v>4.296125239578751</v>
+      </c>
+      <c r="J10">
+        <v>16.95780451006353</v>
+      </c>
+      <c r="K10">
+        <v>28.46262741454054</v>
+      </c>
+      <c r="L10">
+        <v>4.562857604600454</v>
+      </c>
+      <c r="M10">
+        <v>13.48278211492944</v>
+      </c>
+      <c r="N10">
+        <v>8.522519134637928</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>16.83654009076534</v>
+      </c>
+      <c r="C11">
+        <v>8.328248524985954</v>
+      </c>
+      <c r="D11">
+        <v>9.587756836668451</v>
+      </c>
+      <c r="E11">
+        <v>7.470560466850043</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>53.98943878363248</v>
+      </c>
+      <c r="H11">
+        <v>4.230995399627138</v>
+      </c>
+      <c r="I11">
+        <v>4.232312236126037</v>
+      </c>
+      <c r="J11">
+        <v>16.09640400523776</v>
+      </c>
+      <c r="K11">
+        <v>26.71835233726843</v>
+      </c>
+      <c r="L11">
+        <v>4.594350909494333</v>
+      </c>
+      <c r="M11">
+        <v>13.97651029134653</v>
+      </c>
+      <c r="N11">
+        <v>7.955845073043263</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>16.99758549511638</v>
+      </c>
+      <c r="C12">
+        <v>8.585808758046809</v>
+      </c>
+      <c r="D12">
+        <v>9.190043681287825</v>
+      </c>
+      <c r="E12">
+        <v>6.918551849447773</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>50.47832884233753</v>
+      </c>
+      <c r="H12">
+        <v>5.255555363545937</v>
+      </c>
+      <c r="I12">
+        <v>4.231160256209784</v>
+      </c>
+      <c r="J12">
+        <v>15.34124504594995</v>
+      </c>
+      <c r="K12">
+        <v>25.209735196941</v>
+      </c>
+      <c r="L12">
+        <v>4.656773255712951</v>
+      </c>
+      <c r="M12">
+        <v>14.16727444097986</v>
+      </c>
+      <c r="N12">
+        <v>7.413749615632442</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>16.91819859677374</v>
+      </c>
+      <c r="C13">
+        <v>8.707977241863627</v>
+      </c>
+      <c r="D13">
+        <v>8.727274692660442</v>
+      </c>
+      <c r="E13">
+        <v>6.429181498093948</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>46.77302532334204</v>
+      </c>
+      <c r="H13">
+        <v>6.474958063716303</v>
+      </c>
+      <c r="I13">
+        <v>4.290811324900584</v>
+      </c>
+      <c r="J13">
+        <v>14.58219558769609</v>
+      </c>
+      <c r="K13">
+        <v>23.70705224203532</v>
+      </c>
+      <c r="L13">
+        <v>4.741337915643758</v>
+      </c>
+      <c r="M13">
+        <v>14.14799256290905</v>
+      </c>
+      <c r="N13">
+        <v>6.858158528940253</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>16.75187949734367</v>
+      </c>
+      <c r="C14">
+        <v>8.740386946703099</v>
+      </c>
+      <c r="D14">
+        <v>8.370435663360368</v>
+      </c>
+      <c r="E14">
+        <v>6.136501936179414</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>44.05464861266728</v>
+      </c>
+      <c r="H14">
+        <v>7.392267192631126</v>
+      </c>
+      <c r="I14">
+        <v>4.362021312160448</v>
+      </c>
+      <c r="J14">
+        <v>14.04693963863113</v>
+      </c>
+      <c r="K14">
+        <v>22.65547692893715</v>
+      </c>
+      <c r="L14">
+        <v>4.816388659196003</v>
+      </c>
+      <c r="M14">
+        <v>14.04076350694184</v>
+      </c>
+      <c r="N14">
+        <v>6.467571855764145</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>16.65809130320207</v>
+      </c>
+      <c r="C15">
+        <v>8.726190681352906</v>
+      </c>
+      <c r="D15">
+        <v>8.268845105580953</v>
+      </c>
+      <c r="E15">
+        <v>6.068847423261336</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>43.31171050927389</v>
+      </c>
+      <c r="H15">
+        <v>7.615356103628949</v>
+      </c>
+      <c r="I15">
+        <v>4.396636588266422</v>
+      </c>
+      <c r="J15">
+        <v>13.90769398875557</v>
+      </c>
+      <c r="K15">
+        <v>22.38275184788961</v>
+      </c>
+      <c r="L15">
+        <v>4.831213197016528</v>
+      </c>
+      <c r="M15">
+        <v>13.97043952567809</v>
+      </c>
+      <c r="N15">
+        <v>6.369363995764861</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>16.16078084888369</v>
+      </c>
+      <c r="C16">
+        <v>8.442018913098101</v>
+      </c>
+      <c r="D16">
+        <v>8.152808684153701</v>
+      </c>
+      <c r="E16">
+        <v>6.030579059014726</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>42.9614850794551</v>
+      </c>
+      <c r="H16">
+        <v>7.498552531101836</v>
+      </c>
+      <c r="I16">
+        <v>4.537418689224728</v>
+      </c>
+      <c r="J16">
+        <v>13.89372467869969</v>
+      </c>
+      <c r="K16">
+        <v>22.35960008763162</v>
+      </c>
+      <c r="L16">
+        <v>4.754538537514109</v>
+      </c>
+      <c r="M16">
+        <v>13.52933773931365</v>
+      </c>
+      <c r="N16">
+        <v>6.328680053141339</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>15.86353893129914</v>
+      </c>
+      <c r="C17">
+        <v>8.200653322126445</v>
+      </c>
+      <c r="D17">
+        <v>8.257913150337647</v>
+      </c>
+      <c r="E17">
+        <v>6.14614865364755</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>44.15670058168548</v>
+      </c>
+      <c r="H17">
+        <v>6.905700004637596</v>
+      </c>
+      <c r="I17">
+        <v>4.60852129392234</v>
+      </c>
+      <c r="J17">
+        <v>14.16617577111956</v>
+      </c>
+      <c r="K17">
+        <v>22.89574174383711</v>
+      </c>
+      <c r="L17">
+        <v>4.649888349928743</v>
+      </c>
+      <c r="M17">
+        <v>13.24291245397907</v>
+      </c>
+      <c r="N17">
+        <v>6.505295585259151</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>15.71371380450741</v>
+      </c>
+      <c r="C18">
+        <v>7.95745476066154</v>
+      </c>
+      <c r="D18">
+        <v>8.568271413738964</v>
+      </c>
+      <c r="E18">
+        <v>6.470349348208407</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>46.93688180576191</v>
+      </c>
+      <c r="H18">
+        <v>5.901458210233078</v>
+      </c>
+      <c r="I18">
+        <v>4.616265871704453</v>
+      </c>
+      <c r="J18">
+        <v>14.74501412317274</v>
+      </c>
+      <c r="K18">
+        <v>24.04274714425583</v>
+      </c>
+      <c r="L18">
+        <v>4.536748282105971</v>
+      </c>
+      <c r="M18">
+        <v>13.06104631358368</v>
+      </c>
+      <c r="N18">
+        <v>6.901509105353338</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>15.68674509265523</v>
+      </c>
+      <c r="C19">
+        <v>7.771817024085571</v>
+      </c>
+      <c r="D19">
+        <v>9.014772722250857</v>
+      </c>
+      <c r="E19">
+        <v>7.006724446502139</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>50.61759287326011</v>
+      </c>
+      <c r="H19">
+        <v>4.811256072500326</v>
+      </c>
+      <c r="I19">
+        <v>4.583448487074339</v>
+      </c>
+      <c r="J19">
+        <v>15.50408797765017</v>
+      </c>
+      <c r="K19">
+        <v>25.55364456535954</v>
+      </c>
+      <c r="L19">
+        <v>4.468966895162572</v>
+      </c>
+      <c r="M19">
+        <v>12.98784037265547</v>
+      </c>
+      <c r="N19">
+        <v>7.465425633881793</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>16.02104471423586</v>
+      </c>
+      <c r="C20">
+        <v>7.705140050172067</v>
+      </c>
+      <c r="D20">
+        <v>9.819618605485815</v>
+      </c>
+      <c r="E20">
+        <v>8.052021179610058</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>56.9001284993527</v>
+      </c>
+      <c r="H20">
+        <v>3.794587468327315</v>
+      </c>
+      <c r="I20">
+        <v>4.41156829542803</v>
+      </c>
+      <c r="J20">
+        <v>16.79232798223751</v>
+      </c>
+      <c r="K20">
+        <v>28.12885896428686</v>
+      </c>
+      <c r="L20">
+        <v>4.524925723067049</v>
+      </c>
+      <c r="M20">
+        <v>13.21309524634398</v>
+      </c>
+      <c r="N20">
+        <v>8.441815523718581</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>16.94302186712734</v>
+      </c>
+      <c r="C21">
+        <v>8.178574542089516</v>
+      </c>
+      <c r="D21">
+        <v>10.25682752736888</v>
+      </c>
+      <c r="E21">
+        <v>8.413761441982064</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>59.38628966023639</v>
+      </c>
+      <c r="H21">
+        <v>3.433744538794284</v>
+      </c>
+      <c r="I21">
+        <v>4.132497470058884</v>
+      </c>
+      <c r="J21">
+        <v>17.23975706025458</v>
+      </c>
+      <c r="K21">
+        <v>29.00153943138605</v>
+      </c>
+      <c r="L21">
+        <v>4.639950333600154</v>
+      </c>
+      <c r="M21">
+        <v>14.01255848313519</v>
+      </c>
+      <c r="N21">
+        <v>8.815327469485744</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>17.52462786507705</v>
+      </c>
+      <c r="C22">
+        <v>8.470347277033783</v>
+      </c>
+      <c r="D22">
+        <v>10.50698503351276</v>
+      </c>
+      <c r="E22">
+        <v>8.600685266686128</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>60.83605436918543</v>
+      </c>
+      <c r="H22">
+        <v>3.213657342644725</v>
+      </c>
+      <c r="I22">
+        <v>3.948006910439798</v>
+      </c>
+      <c r="J22">
+        <v>17.5000583461336</v>
+      </c>
+      <c r="K22">
+        <v>29.50794498607666</v>
+      </c>
+      <c r="L22">
+        <v>4.710573496169102</v>
+      </c>
+      <c r="M22">
+        <v>14.51108743967374</v>
+      </c>
+      <c r="N22">
+        <v>9.008945261775422</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>17.22092272626364</v>
+      </c>
+      <c r="C23">
+        <v>8.296898385121718</v>
+      </c>
+      <c r="D23">
+        <v>10.37685831118165</v>
+      </c>
+      <c r="E23">
+        <v>8.50607238591699</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>60.18954076132354</v>
+      </c>
+      <c r="H23">
+        <v>3.328969033400785</v>
+      </c>
+      <c r="I23">
+        <v>4.036199837099182</v>
+      </c>
+      <c r="J23">
+        <v>17.38828747563833</v>
+      </c>
+      <c r="K23">
+        <v>29.29619769388457</v>
+      </c>
+      <c r="L23">
+        <v>4.673970734707792</v>
+      </c>
+      <c r="M23">
+        <v>14.24329046577945</v>
+      </c>
+      <c r="N23">
+        <v>8.903021229635629</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>16.0168700697722</v>
+      </c>
+      <c r="C24">
+        <v>7.651240205404722</v>
+      </c>
+      <c r="D24">
+        <v>9.868394036183524</v>
+      </c>
+      <c r="E24">
+        <v>8.130858178261764</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>57.48511027195317</v>
+      </c>
+      <c r="H24">
+        <v>3.776436394461826</v>
+      </c>
+      <c r="I24">
+        <v>4.393450941486075</v>
+      </c>
+      <c r="J24">
+        <v>16.91812959030688</v>
+      </c>
+      <c r="K24">
+        <v>28.38784912804976</v>
+      </c>
+      <c r="L24">
+        <v>4.531506201862834</v>
+      </c>
+      <c r="M24">
+        <v>13.19235473247877</v>
+      </c>
+      <c r="N24">
+        <v>8.498206202101976</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>14.61942814717118</v>
+      </c>
+      <c r="C25">
+        <v>6.914659011506536</v>
+      </c>
+      <c r="D25">
+        <v>9.298250978975934</v>
+      </c>
+      <c r="E25">
+        <v>7.706838801680361</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>54.45914610967542</v>
+      </c>
+      <c r="H25">
+        <v>4.277111133733193</v>
+      </c>
+      <c r="I25">
+        <v>4.794650040730315</v>
+      </c>
+      <c r="J25">
+        <v>16.4056652330872</v>
+      </c>
+      <c r="K25">
+        <v>27.38391540183262</v>
+      </c>
+      <c r="L25">
+        <v>4.372580500063592</v>
+      </c>
+      <c r="M25">
+        <v>11.96659924570784</v>
+      </c>
+      <c r="N25">
+        <v>8.04472379402614</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_0/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_0/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.51961068986292</v>
+        <v>13.18407925498204</v>
       </c>
       <c r="C2">
-        <v>6.279756989264795</v>
+        <v>6.998955642642647</v>
       </c>
       <c r="D2">
-        <v>8.869974494422301</v>
+        <v>8.774213793805673</v>
       </c>
       <c r="E2">
-        <v>7.391613307393488</v>
+        <v>7.25671239242176</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>52.4911283505925</v>
+        <v>46.13866228569584</v>
       </c>
       <c r="H2">
-        <v>4.657760558152254</v>
+        <v>4.331585288257435</v>
       </c>
       <c r="I2">
-        <v>5.082111390261814</v>
+        <v>4.702661006678515</v>
       </c>
       <c r="J2">
-        <v>16.09597138946696</v>
+        <v>14.51491769957313</v>
       </c>
       <c r="K2">
-        <v>26.78025556078245</v>
+        <v>23.59066376537575</v>
       </c>
       <c r="L2">
-        <v>4.253253743440644</v>
+        <v>17.88276638616853</v>
       </c>
       <c r="M2">
-        <v>11.03424937004857</v>
+        <v>17.13304884545883</v>
       </c>
       <c r="N2">
-        <v>7.689716336192803</v>
+        <v>4.251345374025084</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>11.26317195832859</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>8.027004685522837</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.71598599768136</v>
+        <v>12.37794403822176</v>
       </c>
       <c r="C3">
-        <v>5.856429993653082</v>
+        <v>6.477757578057659</v>
       </c>
       <c r="D3">
-        <v>8.566446943817578</v>
+        <v>8.488043139761348</v>
       </c>
       <c r="E3">
-        <v>7.161303813014619</v>
+        <v>7.058271769087708</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>50.92169155523265</v>
+        <v>45.23180132329859</v>
       </c>
       <c r="H3">
-        <v>4.929532797439426</v>
+        <v>4.576442335028461</v>
       </c>
       <c r="I3">
-        <v>5.298602824160499</v>
+        <v>4.889015369067971</v>
       </c>
       <c r="J3">
-        <v>15.84456445111311</v>
+        <v>14.33091458028376</v>
       </c>
       <c r="K3">
-        <v>26.27509884264762</v>
+        <v>23.34669732768352</v>
       </c>
       <c r="L3">
-        <v>4.167548426432023</v>
+        <v>17.79567529513997</v>
       </c>
       <c r="M3">
-        <v>10.43396057499086</v>
+        <v>16.88599524081061</v>
       </c>
       <c r="N3">
-        <v>7.446422584322186</v>
+        <v>4.173858806606404</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>10.59081048207684</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>7.780154823743998</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.19764637002224</v>
+        <v>11.85580079689183</v>
       </c>
       <c r="C4">
-        <v>5.586035995284185</v>
+        <v>6.142958839072715</v>
       </c>
       <c r="D4">
-        <v>8.376102900064089</v>
+        <v>8.308855559434109</v>
       </c>
       <c r="E4">
-        <v>7.015151772165982</v>
+        <v>6.932496541202565</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>49.93164937296655</v>
+        <v>44.66538001563759</v>
       </c>
       <c r="H4">
-        <v>5.102170242929804</v>
+        <v>4.732143068305801</v>
       </c>
       <c r="I4">
-        <v>5.436559345989379</v>
+        <v>5.008119156169944</v>
       </c>
       <c r="J4">
-        <v>15.68835517365966</v>
+        <v>14.21469661820502</v>
       </c>
       <c r="K4">
-        <v>25.95779465659654</v>
+        <v>23.19266039014386</v>
       </c>
       <c r="L4">
-        <v>4.113154744263166</v>
+        <v>17.73379728603479</v>
       </c>
       <c r="M4">
-        <v>10.05122223483857</v>
+        <v>16.74560369249894</v>
       </c>
       <c r="N4">
-        <v>7.294002012725101</v>
+        <v>4.124669325967639</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>10.18116996460471</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>7.625799118419294</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.97879629520408</v>
+        <v>11.63491962632271</v>
       </c>
       <c r="C5">
-        <v>5.480031618403908</v>
+        <v>6.009596110618573</v>
       </c>
       <c r="D5">
-        <v>8.296732034720824</v>
+        <v>8.234278465280774</v>
       </c>
       <c r="E5">
-        <v>6.95298686164952</v>
+        <v>6.879070337119394</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>49.48376628332055</v>
+        <v>44.40044871473656</v>
       </c>
       <c r="H5">
-        <v>5.174540753811917</v>
+        <v>4.797430348336087</v>
       </c>
       <c r="I5">
-        <v>5.496389621799879</v>
+        <v>5.060471699067242</v>
       </c>
       <c r="J5">
-        <v>15.6165544349663</v>
+        <v>14.15988688176347</v>
       </c>
       <c r="K5">
-        <v>25.81003640652416</v>
+        <v>23.11516633590373</v>
       </c>
       <c r="L5">
-        <v>4.090228967896107</v>
+        <v>17.69454531923245</v>
       </c>
       <c r="M5">
-        <v>9.893656978757527</v>
+        <v>16.68254531455062</v>
       </c>
       <c r="N5">
-        <v>7.232076290831708</v>
+        <v>4.103984076436612</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>10.0116636889467</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>7.563021105588661</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.940281189438</v>
+        <v>11.5961928456116</v>
       </c>
       <c r="C6">
-        <v>5.470632198733993</v>
+        <v>5.995551884394837</v>
       </c>
       <c r="D6">
-        <v>8.282402194397561</v>
+        <v>8.220905692977484</v>
       </c>
       <c r="E6">
-        <v>6.940823140698739</v>
+        <v>6.868659936574957</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>49.36227558186111</v>
+        <v>44.3173957709569</v>
       </c>
       <c r="H6">
-        <v>5.187309382031797</v>
+        <v>4.808926643956879</v>
       </c>
       <c r="I6">
-        <v>5.509346404418965</v>
+        <v>5.072577061713933</v>
       </c>
       <c r="J6">
-        <v>15.59516347297332</v>
+        <v>14.14259560167158</v>
       </c>
       <c r="K6">
-        <v>25.76490670039203</v>
+        <v>23.0855209462365</v>
       </c>
       <c r="L6">
-        <v>4.086021836220486</v>
+        <v>17.67335782087758</v>
       </c>
       <c r="M6">
-        <v>9.869505450267956</v>
+        <v>16.66148493244393</v>
       </c>
       <c r="N6">
-        <v>7.222842631463617</v>
+        <v>4.100247817093707</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>9.985198924963248</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>7.553487589315898</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.18985946591264</v>
+        <v>11.85079432817423</v>
       </c>
       <c r="C7">
-        <v>5.606868145863482</v>
+        <v>6.152927916822393</v>
       </c>
       <c r="D7">
-        <v>8.372073886622406</v>
+        <v>8.30607672379548</v>
       </c>
       <c r="E7">
-        <v>7.009534668730856</v>
+        <v>6.928698638590343</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>49.79927940790129</v>
+        <v>44.59451397628369</v>
       </c>
       <c r="H7">
-        <v>5.104924953451977</v>
+        <v>4.735393575692451</v>
       </c>
       <c r="I7">
-        <v>5.445179076177788</v>
+        <v>5.018441875297099</v>
       </c>
       <c r="J7">
-        <v>15.66176081372491</v>
+        <v>14.13691069456887</v>
       </c>
       <c r="K7">
-        <v>25.90022246220957</v>
+        <v>23.12364711157831</v>
       </c>
       <c r="L7">
-        <v>4.111843778961972</v>
+        <v>17.67490797407111</v>
       </c>
       <c r="M7">
-        <v>10.05500654452048</v>
+        <v>16.70013515209007</v>
       </c>
       <c r="N7">
-        <v>7.296117927809338</v>
+        <v>4.123451974653439</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>10.18218038729344</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>7.625921382805726</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.24166115823623</v>
+        <v>12.91342529283154</v>
       </c>
       <c r="C8">
-        <v>6.162969395016998</v>
+        <v>6.817506005815487</v>
       </c>
       <c r="D8">
-        <v>8.762449559224498</v>
+        <v>8.675607743045969</v>
       </c>
       <c r="E8">
-        <v>7.307134443742874</v>
+        <v>7.187105547511146</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>51.79487921278763</v>
+        <v>45.81840213385291</v>
       </c>
       <c r="H8">
-        <v>4.752552189568951</v>
+        <v>4.419436233471868</v>
       </c>
       <c r="I8">
-        <v>5.165636037769526</v>
+        <v>4.779560604101602</v>
       </c>
       <c r="J8">
-        <v>15.97659049427787</v>
+        <v>14.24592677105021</v>
       </c>
       <c r="K8">
-        <v>26.53597772183736</v>
+        <v>23.37598635689884</v>
       </c>
       <c r="L8">
-        <v>4.22279646441129</v>
+        <v>17.74579589260391</v>
       </c>
       <c r="M8">
-        <v>10.83746275675039</v>
+        <v>16.95491576602259</v>
       </c>
       <c r="N8">
-        <v>7.610268972151147</v>
+        <v>4.223428670278608</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>11.0136797974474</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>7.94081012717201</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.11084858360099</v>
+        <v>14.77808618437173</v>
       </c>
       <c r="C9">
-        <v>7.136284011094188</v>
+        <v>8.007824933922985</v>
       </c>
       <c r="D9">
-        <v>9.497733601697824</v>
+        <v>9.370514690273273</v>
       </c>
       <c r="E9">
-        <v>7.859880980723921</v>
+        <v>7.664859071398393</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>55.69563471176507</v>
+        <v>48.17523581333074</v>
       </c>
       <c r="H9">
-        <v>4.103044366928684</v>
+        <v>3.835742352184886</v>
       </c>
       <c r="I9">
-        <v>4.643543797032389</v>
+        <v>4.330254983776611</v>
       </c>
       <c r="J9">
-        <v>16.62186608720297</v>
+        <v>14.67050825475366</v>
       </c>
       <c r="K9">
-        <v>27.81766498167521</v>
+        <v>23.99731894209713</v>
       </c>
       <c r="L9">
-        <v>4.428461789790497</v>
+        <v>17.95335732616834</v>
       </c>
       <c r="M9">
-        <v>12.38562900094952</v>
+        <v>17.64853916192848</v>
       </c>
       <c r="N9">
-        <v>8.194788173195274</v>
+        <v>4.409003976209379</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>12.69296769079692</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>8.534860879012127</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.35088765218695</v>
+        <v>16.02024087754722</v>
       </c>
       <c r="C10">
-        <v>7.83061537041905</v>
+        <v>8.783092938800943</v>
       </c>
       <c r="D10">
-        <v>9.946688133080473</v>
+        <v>9.799227917550247</v>
       </c>
       <c r="E10">
-        <v>8.142015665349884</v>
+        <v>7.908341372955589</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>57.81284486651995</v>
+        <v>49.59353657911226</v>
       </c>
       <c r="H10">
-        <v>3.679872576737115</v>
+        <v>3.461627833462989</v>
       </c>
       <c r="I10">
-        <v>4.296125239578751</v>
+        <v>4.037437643792138</v>
       </c>
       <c r="J10">
-        <v>16.95780451006353</v>
+        <v>14.57837257368707</v>
       </c>
       <c r="K10">
-        <v>28.46262741454054</v>
+        <v>24.12451182195136</v>
       </c>
       <c r="L10">
-        <v>4.562857604600454</v>
+        <v>17.83122411318007</v>
       </c>
       <c r="M10">
-        <v>13.48278211492944</v>
+        <v>17.97177440567571</v>
       </c>
       <c r="N10">
-        <v>8.522519134637928</v>
+        <v>4.532232471874904</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>13.79371681806311</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>8.859701594556876</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.83654009076534</v>
+        <v>16.55371000145151</v>
       </c>
       <c r="C11">
-        <v>8.328248524985954</v>
+        <v>9.122996035370855</v>
       </c>
       <c r="D11">
-        <v>9.587756836668451</v>
+        <v>9.461347603060464</v>
       </c>
       <c r="E11">
-        <v>7.470560466850043</v>
+        <v>7.286367315178602</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>53.98943878363248</v>
+        <v>46.84704920618265</v>
       </c>
       <c r="H11">
-        <v>4.230995399627138</v>
+        <v>4.054049031310116</v>
       </c>
       <c r="I11">
-        <v>4.232312236126037</v>
+        <v>3.989736327288676</v>
       </c>
       <c r="J11">
-        <v>16.09640400523776</v>
+        <v>13.32183697001633</v>
       </c>
       <c r="K11">
-        <v>26.71835233726843</v>
+        <v>22.499101804316</v>
       </c>
       <c r="L11">
-        <v>4.594350909494333</v>
+        <v>16.50162925690594</v>
       </c>
       <c r="M11">
-        <v>13.97651029134653</v>
+        <v>16.85225445542178</v>
       </c>
       <c r="N11">
-        <v>7.955845073043263</v>
+        <v>4.585708528425052</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>14.24605255030239</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>8.256038821626547</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.99758549511638</v>
+        <v>16.74939869380898</v>
       </c>
       <c r="C12">
-        <v>8.585808758046809</v>
+        <v>9.253428818352985</v>
       </c>
       <c r="D12">
-        <v>9.190043681287825</v>
+        <v>9.082221234070397</v>
       </c>
       <c r="E12">
-        <v>6.918551849447773</v>
+        <v>6.779250375665104</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>50.47832884233753</v>
+        <v>44.22553187815886</v>
       </c>
       <c r="H12">
-        <v>5.255555363545937</v>
+        <v>5.112140481910226</v>
       </c>
       <c r="I12">
-        <v>4.231160256209784</v>
+        <v>3.987581122208048</v>
       </c>
       <c r="J12">
-        <v>15.34124504594995</v>
+        <v>12.53439273942605</v>
       </c>
       <c r="K12">
-        <v>25.209735196941</v>
+        <v>21.27206164363731</v>
       </c>
       <c r="L12">
-        <v>4.656773255712951</v>
+        <v>15.55222490177338</v>
       </c>
       <c r="M12">
-        <v>14.16727444097986</v>
+        <v>15.95120598094923</v>
       </c>
       <c r="N12">
-        <v>7.413749615632442</v>
+        <v>4.664176933897272</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>14.40725633517025</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>7.68894622877156</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.91819859677374</v>
+        <v>16.69423200495332</v>
       </c>
       <c r="C13">
-        <v>8.707977241863627</v>
+        <v>9.279597828516961</v>
       </c>
       <c r="D13">
-        <v>8.727274692660442</v>
+        <v>8.636376968301072</v>
       </c>
       <c r="E13">
-        <v>6.429181498093948</v>
+        <v>6.335470544835212</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>46.77302532334204</v>
+        <v>41.27626647840754</v>
       </c>
       <c r="H13">
-        <v>6.474958063716303</v>
+        <v>6.349336030802134</v>
       </c>
       <c r="I13">
-        <v>4.290811324900584</v>
+        <v>4.033889989814885</v>
       </c>
       <c r="J13">
-        <v>14.58219558769609</v>
+        <v>12.08765415611781</v>
       </c>
       <c r="K13">
-        <v>23.70705224203532</v>
+        <v>20.24640763325058</v>
       </c>
       <c r="L13">
-        <v>4.741337915643758</v>
+        <v>14.79685237777836</v>
       </c>
       <c r="M13">
-        <v>14.14799256290905</v>
+        <v>15.15251596450391</v>
       </c>
       <c r="N13">
-        <v>6.858158528940253</v>
+        <v>4.763412238169604</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>14.36859383296455</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>7.118100770040406</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.75187949734367</v>
+        <v>16.5406601689287</v>
       </c>
       <c r="C14">
-        <v>8.740386946703099</v>
+        <v>9.256105568623699</v>
       </c>
       <c r="D14">
-        <v>8.370435663360368</v>
+        <v>8.291010952202846</v>
       </c>
       <c r="E14">
-        <v>6.136501936179414</v>
+        <v>6.076245803194897</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>44.05464861266728</v>
+        <v>39.04931885374427</v>
       </c>
       <c r="H14">
-        <v>7.392267192631126</v>
+        <v>7.27321775772112</v>
       </c>
       <c r="I14">
-        <v>4.362021312160448</v>
+        <v>4.090879002548689</v>
       </c>
       <c r="J14">
-        <v>14.04693963863113</v>
+        <v>11.89899283065507</v>
       </c>
       <c r="K14">
-        <v>22.65547692893715</v>
+        <v>19.60836064375584</v>
       </c>
       <c r="L14">
-        <v>4.816388659196003</v>
+        <v>14.34068518499275</v>
       </c>
       <c r="M14">
-        <v>14.04076350694184</v>
+        <v>14.63672514465762</v>
       </c>
       <c r="N14">
-        <v>6.467571855764145</v>
+        <v>4.84811800548112</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>14.2516202246572</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>6.72079045681101</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.65809130320207</v>
+        <v>16.44812725613283</v>
       </c>
       <c r="C15">
-        <v>8.726190681352906</v>
+        <v>9.23342679941395</v>
       </c>
       <c r="D15">
-        <v>8.268845105580953</v>
+        <v>8.192257372018144</v>
       </c>
       <c r="E15">
-        <v>6.068847423261336</v>
+        <v>6.017881069868285</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>43.31171050927389</v>
+        <v>38.41799678915726</v>
       </c>
       <c r="H15">
-        <v>7.615356103628949</v>
+        <v>7.4958568314814</v>
       </c>
       <c r="I15">
-        <v>4.396636588266422</v>
+        <v>4.119955204347161</v>
       </c>
       <c r="J15">
-        <v>13.90769398875557</v>
+        <v>11.89784800526113</v>
       </c>
       <c r="K15">
-        <v>22.38275184788961</v>
+        <v>19.47212946152333</v>
       </c>
       <c r="L15">
-        <v>4.831213197016528</v>
+        <v>14.24796272259941</v>
       </c>
       <c r="M15">
-        <v>13.97043952567809</v>
+        <v>14.51939275191405</v>
       </c>
       <c r="N15">
-        <v>6.369363995764861</v>
+        <v>4.865841915881068</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>14.18062112920292</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>6.622479865291496</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.16078084888369</v>
+        <v>15.93266179249568</v>
       </c>
       <c r="C16">
-        <v>8.442018913098101</v>
+        <v>8.996184775658415</v>
       </c>
       <c r="D16">
-        <v>8.152808684153701</v>
+        <v>8.076395075845841</v>
       </c>
       <c r="E16">
-        <v>6.030579059014726</v>
+        <v>5.988641943350799</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>42.9614850794551</v>
+        <v>37.97510754645699</v>
       </c>
       <c r="H16">
-        <v>7.498552531101836</v>
+        <v>7.359360302518763</v>
       </c>
       <c r="I16">
-        <v>4.537418689224728</v>
+        <v>4.236205588142266</v>
       </c>
       <c r="J16">
-        <v>13.89372467869969</v>
+        <v>12.33618400162799</v>
       </c>
       <c r="K16">
-        <v>22.35960008763162</v>
+        <v>19.72838326610301</v>
       </c>
       <c r="L16">
-        <v>4.754538537514109</v>
+        <v>14.48170234793291</v>
       </c>
       <c r="M16">
-        <v>13.52933773931365</v>
+        <v>14.65533749930768</v>
       </c>
       <c r="N16">
-        <v>6.328680053141339</v>
+        <v>4.795812333986893</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>13.7556989954126</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>6.595896328223377</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.86353893129914</v>
+        <v>15.61656003462535</v>
       </c>
       <c r="C17">
-        <v>8.200653322126445</v>
+        <v>8.810915929765024</v>
       </c>
       <c r="D17">
-        <v>8.257913150337647</v>
+        <v>8.176339185896699</v>
       </c>
       <c r="E17">
-        <v>6.14614865364755</v>
+        <v>6.091597080374368</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>44.15670058168548</v>
+        <v>38.87172657461901</v>
       </c>
       <c r="H17">
-        <v>6.905700004637596</v>
+        <v>6.744947882196048</v>
       </c>
       <c r="I17">
-        <v>4.60852129392234</v>
+        <v>4.296720998465112</v>
       </c>
       <c r="J17">
-        <v>14.16617577111956</v>
+        <v>12.74307241566525</v>
       </c>
       <c r="K17">
-        <v>22.89574174383711</v>
+        <v>20.24517863267328</v>
       </c>
       <c r="L17">
-        <v>4.649888349928743</v>
+        <v>14.90263121685881</v>
       </c>
       <c r="M17">
-        <v>13.24291245397907</v>
+        <v>15.01025974985434</v>
       </c>
       <c r="N17">
-        <v>6.505295585259151</v>
+        <v>4.690083807025816</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>13.48470055616435</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>6.785659418649267</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.71371380450741</v>
+        <v>15.44199702813396</v>
       </c>
       <c r="C18">
-        <v>7.95745476066154</v>
+        <v>8.654044479481444</v>
       </c>
       <c r="D18">
-        <v>8.568271413738964</v>
+        <v>8.474172204241452</v>
       </c>
       <c r="E18">
-        <v>6.470349348208407</v>
+        <v>6.380299187794256</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>46.93688180576191</v>
+        <v>41.03608513565398</v>
       </c>
       <c r="H18">
-        <v>5.901458210233078</v>
+        <v>5.711901907179263</v>
       </c>
       <c r="I18">
-        <v>4.616265871704453</v>
+        <v>4.302901764417743</v>
       </c>
       <c r="J18">
-        <v>14.74501412317274</v>
+        <v>13.2771359217697</v>
       </c>
       <c r="K18">
-        <v>24.04274714425583</v>
+        <v>21.14088270155466</v>
       </c>
       <c r="L18">
-        <v>4.536748282105971</v>
+        <v>15.61208622156776</v>
       </c>
       <c r="M18">
-        <v>13.06104631358368</v>
+        <v>15.6571761078094</v>
       </c>
       <c r="N18">
-        <v>6.901509105353338</v>
+        <v>4.567681064655234</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>13.32333189995263</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>7.198584033953054</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.68674509265523</v>
+        <v>15.38751398583778</v>
       </c>
       <c r="C19">
-        <v>7.771817024085571</v>
+        <v>8.574135981539701</v>
       </c>
       <c r="D19">
-        <v>9.014772722250857</v>
+        <v>8.903007271526288</v>
       </c>
       <c r="E19">
-        <v>7.006724446502139</v>
+        <v>6.866336466655833</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>50.61759287326011</v>
+        <v>43.89263840112768</v>
       </c>
       <c r="H19">
-        <v>4.811256072500326</v>
+        <v>4.587766212946791</v>
       </c>
       <c r="I19">
-        <v>4.583448487074339</v>
+        <v>4.279050687071532</v>
       </c>
       <c r="J19">
-        <v>15.50408797765017</v>
+        <v>13.88811319421208</v>
       </c>
       <c r="K19">
-        <v>25.55364456535954</v>
+        <v>22.2581258246527</v>
       </c>
       <c r="L19">
-        <v>4.468966895162572</v>
+        <v>16.48716656990483</v>
       </c>
       <c r="M19">
-        <v>12.98784037265547</v>
+        <v>16.47714489869467</v>
       </c>
       <c r="N19">
-        <v>7.465425633881793</v>
+        <v>4.481940793011525</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>13.27323606150416</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>7.781467969197098</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.02104471423586</v>
+        <v>15.68581701823032</v>
       </c>
       <c r="C20">
-        <v>7.705140050172067</v>
+        <v>8.663835336920052</v>
       </c>
       <c r="D20">
-        <v>9.819618605485815</v>
+        <v>9.676028557535547</v>
       </c>
       <c r="E20">
-        <v>8.052021179610058</v>
+        <v>7.827516272008187</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>56.9001284993527</v>
+        <v>48.7867647963478</v>
       </c>
       <c r="H20">
-        <v>3.794587468327315</v>
+        <v>3.56025330874646</v>
       </c>
       <c r="I20">
-        <v>4.41156829542803</v>
+        <v>4.140132722551238</v>
       </c>
       <c r="J20">
-        <v>16.79232798223751</v>
+        <v>14.71751944300725</v>
       </c>
       <c r="K20">
-        <v>28.12885896428686</v>
+        <v>24.03064961844619</v>
       </c>
       <c r="L20">
-        <v>4.524925723067049</v>
+        <v>17.81671868541963</v>
       </c>
       <c r="M20">
-        <v>13.21309524634398</v>
+        <v>17.83941609514744</v>
       </c>
       <c r="N20">
-        <v>8.441815523718581</v>
+        <v>4.498728554507961</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>13.52856743344886</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>8.783270205295238</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.94302186712734</v>
+        <v>16.63212185421861</v>
       </c>
       <c r="C21">
-        <v>8.178574542089516</v>
+        <v>9.073963407365863</v>
       </c>
       <c r="D21">
-        <v>10.25682752736888</v>
+        <v>10.10751201693652</v>
       </c>
       <c r="E21">
-        <v>8.413761441982064</v>
+        <v>8.167545081170646</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>59.38628966023639</v>
+        <v>51.26007864410646</v>
       </c>
       <c r="H21">
-        <v>3.433744538794284</v>
+        <v>3.250829190127423</v>
       </c>
       <c r="I21">
-        <v>4.132497470058884</v>
+        <v>3.91589016058763</v>
       </c>
       <c r="J21">
-        <v>17.23975706025458</v>
+        <v>13.88158853835712</v>
       </c>
       <c r="K21">
-        <v>29.00153943138605</v>
+        <v>24.03129919259973</v>
       </c>
       <c r="L21">
-        <v>4.639950333600154</v>
+        <v>17.65242992900748</v>
       </c>
       <c r="M21">
-        <v>14.01255848313519</v>
+        <v>18.02329196834425</v>
       </c>
       <c r="N21">
-        <v>8.815327469485744</v>
+        <v>4.597031514210508</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>14.30128450550796</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>9.134318420981216</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.52462786507705</v>
+        <v>17.23393779841117</v>
       </c>
       <c r="C22">
-        <v>8.470347277033783</v>
+        <v>9.311507277610092</v>
       </c>
       <c r="D22">
-        <v>10.50698503351276</v>
+        <v>10.35637046771761</v>
       </c>
       <c r="E22">
-        <v>8.600685266686128</v>
+        <v>8.34577721732895</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>60.83605436918543</v>
+        <v>52.82379169982467</v>
       </c>
       <c r="H22">
-        <v>3.213657342644725</v>
+        <v>3.063531860302278</v>
       </c>
       <c r="I22">
-        <v>3.948006910439798</v>
+        <v>3.764414503797771</v>
       </c>
       <c r="J22">
-        <v>17.5000583461336</v>
+        <v>13.27846368313936</v>
       </c>
       <c r="K22">
-        <v>29.50794498607666</v>
+        <v>23.96611747903459</v>
       </c>
       <c r="L22">
-        <v>4.710573496169102</v>
+        <v>17.4966454991185</v>
       </c>
       <c r="M22">
-        <v>14.51108743967374</v>
+        <v>18.09912856195045</v>
       </c>
       <c r="N22">
-        <v>9.008945261775422</v>
+        <v>4.658803566160173</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>14.77957358351671</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>9.311005445763497</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.22092272626364</v>
+        <v>16.91320905178761</v>
       </c>
       <c r="C23">
-        <v>8.296898385121718</v>
+        <v>9.186229747246854</v>
       </c>
       <c r="D23">
-        <v>10.37685831118165</v>
+        <v>10.22457894550543</v>
       </c>
       <c r="E23">
-        <v>8.50607238591699</v>
+        <v>8.252333133590524</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>60.18954076132354</v>
+        <v>51.99841719098021</v>
       </c>
       <c r="H23">
-        <v>3.328969033400785</v>
+        <v>3.160278813470083</v>
       </c>
       <c r="I23">
-        <v>4.036199837099182</v>
+        <v>3.832185820119832</v>
       </c>
       <c r="J23">
-        <v>17.38828747563833</v>
+        <v>13.73896484772562</v>
       </c>
       <c r="K23">
-        <v>29.29619769388457</v>
+        <v>24.10034133031779</v>
       </c>
       <c r="L23">
-        <v>4.673970734707792</v>
+        <v>17.65393180714322</v>
       </c>
       <c r="M23">
-        <v>14.24329046577945</v>
+        <v>18.13414697085204</v>
       </c>
       <c r="N23">
-        <v>8.903021229635629</v>
+        <v>4.626833875135555</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>14.52740395182748</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>9.217904235271398</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.0168700697722</v>
+        <v>15.67784700067685</v>
       </c>
       <c r="C24">
-        <v>7.651240205404722</v>
+        <v>8.620602994297156</v>
       </c>
       <c r="D24">
-        <v>9.868394036183524</v>
+        <v>9.72228627124211</v>
       </c>
       <c r="E24">
-        <v>8.130858178261764</v>
+        <v>7.900237452735656</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>57.48511027195317</v>
+        <v>49.25450286465408</v>
       </c>
       <c r="H24">
-        <v>3.776436394461826</v>
+        <v>3.543088103618588</v>
       </c>
       <c r="I24">
-        <v>4.393450941486075</v>
+        <v>4.120386421211662</v>
       </c>
       <c r="J24">
-        <v>16.91812959030688</v>
+        <v>14.82746139992378</v>
       </c>
       <c r="K24">
-        <v>28.38784912804976</v>
+        <v>24.23488293128327</v>
       </c>
       <c r="L24">
-        <v>4.531506201862834</v>
+        <v>17.97720791599315</v>
       </c>
       <c r="M24">
-        <v>13.19235473247877</v>
+        <v>17.98828015892428</v>
       </c>
       <c r="N24">
-        <v>8.498206202101976</v>
+        <v>4.502123550431823</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>13.51083970818121</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>8.842529728287033</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.61942814717118</v>
+        <v>14.28752887134765</v>
       </c>
       <c r="C25">
-        <v>6.914659011506536</v>
+        <v>7.742989050832804</v>
       </c>
       <c r="D25">
-        <v>9.298250978975934</v>
+        <v>9.181148732402567</v>
       </c>
       <c r="E25">
-        <v>7.706838801680361</v>
+        <v>7.531374219150192</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>54.45914610967542</v>
+        <v>47.31993486902934</v>
       </c>
       <c r="H25">
-        <v>4.277111133733193</v>
+        <v>3.990798846885273</v>
       </c>
       <c r="I25">
-        <v>4.794650040730315</v>
+        <v>4.462914114463577</v>
       </c>
       <c r="J25">
-        <v>16.4056652330872</v>
+        <v>14.59591477989272</v>
       </c>
       <c r="K25">
-        <v>27.38391540183262</v>
+        <v>23.78686810940169</v>
       </c>
       <c r="L25">
-        <v>4.372580500063592</v>
+        <v>17.86750343379742</v>
       </c>
       <c r="M25">
-        <v>11.96659924570784</v>
+        <v>17.41926961485155</v>
       </c>
       <c r="N25">
-        <v>8.04472379402614</v>
+        <v>4.359148790614324</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>12.26897120430668</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>8.383400649252126</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
